--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C166D8-41CC-44E7-940E-AB3FB99DF795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32028CC-8E19-4E77-8614-C0BCDD9BC100}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB109AA-75F2-4DA8-AF6E-126BB473F4F2}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,6 +459,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32028CC-8E19-4E77-8614-C0BCDD9BC100}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50D4E07-7DE3-45C4-A506-9E0635D0A5E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
+    <workbookView xWindow="7200" yWindow="195" windowWidth="21600" windowHeight="11400" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Esisuunnitelma ja ohjelmointityon suunnittelu</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>tietokannan maarittelya</t>
   </si>
 </sst>
 </file>
@@ -413,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB109AA-75F2-4DA8-AF6E-126BB473F4F2}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,6 +472,93 @@
       <c r="B3" s="2">
         <v>0.54166666666666663</v>
       </c>
+      <c r="C3" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50D4E07-7DE3-45C4-A506-9E0635D0A5E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDFC1C5-E77F-4979-9D86-4121335B5927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="195" windowWidth="21600" windowHeight="11400" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>tietokannan maarittelya</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,8 +486,21 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" s="3"/>

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDFC1C5-E77F-4979-9D86-4121335B5927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07F1586-0F3C-42A3-A682-BC7618B56216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
+    <workbookView xWindow="7200" yWindow="1920" windowWidth="21600" windowHeight="11400" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>tietokannan maarittelya</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -425,7 +422,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,11 +489,11 @@
       <c r="B4" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
+      <c r="C4" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07F1586-0F3C-42A3-A682-BC7618B56216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45860CB9-D412-4359-BF64-142FBA186C2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="1920" windowWidth="21600" windowHeight="11400" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>tietokannan maarittelya</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,8 +503,21 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45860CB9-D412-4359-BF64-142FBA186C2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927692E2-D01E-4640-90FA-2054EB02431B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1920" windowWidth="21600" windowHeight="11400" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
+    <workbookView xWindow="1875" yWindow="1875" windowWidth="21600" windowHeight="11400" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -62,7 +62,10 @@
     <t>tietokannan maarittelya</t>
   </si>
   <si>
-    <t>?</t>
+    <t>5h 45min</t>
+  </si>
+  <si>
+    <t>tietokannan maarittelya (class valmis)</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,14 +512,14 @@
       <c r="B5" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
+      <c r="C5" s="2">
+        <v>0.94791666666666663</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927692E2-D01E-4640-90FA-2054EB02431B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA4B260-A414-4BCD-9ADC-A1BC4AAE46CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="1875" windowWidth="21600" windowHeight="11400" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
+    <workbookView xWindow="7200" yWindow="1920" windowWidth="21600" windowHeight="11400" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>tietokannan maarittelya (class valmis)</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>tietokannan maarittelya (progressio)</t>
   </si>
 </sst>
 </file>
@@ -428,7 +434,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,8 +529,21 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" s="3"/>

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA4B260-A414-4BCD-9ADC-A1BC4AAE46CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7B3C3B-6D42-43A5-B710-5E8A73734F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1920" windowWidth="21600" windowHeight="11400" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
+    <workbookView xWindow="375" yWindow="375" windowWidth="21600" windowHeight="11400" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -47,31 +47,22 @@
     <t>Tunnit</t>
   </si>
   <si>
-    <t>1h 15min</t>
-  </si>
-  <si>
     <t>Tyoskentely</t>
   </si>
   <si>
     <t>Esisuunnitelma ja ohjelmointityon suunnittelu</t>
   </si>
   <si>
-    <t>3h</t>
-  </si>
-  <si>
     <t>tietokannan maarittelya</t>
   </si>
   <si>
-    <t>5h 45min</t>
-  </si>
-  <si>
     <t>tietokannan maarittelya (class valmis)</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>tietokannan maarittelya (progressio)</t>
+    <t>tietokannan maarittelya (progressio valmis)</t>
+  </si>
+  <si>
+    <t>Total Tunnit</t>
   </si>
 </sst>
 </file>
@@ -107,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -117,6 +108,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -431,19 +426,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB109AA-75F2-4DA8-AF6E-126BB473F4F2}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="50.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -457,10 +453,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44009</v>
       </c>
@@ -470,14 +469,18 @@
       <c r="C2" s="2">
         <v>0.73958333333333337</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
+      <c r="D2" s="5">
+        <v>1.25</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6">
+        <f>D2</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44041</v>
       </c>
@@ -487,14 +490,18 @@
       <c r="C3" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
+      <c r="D3" s="3">
+        <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6">
+        <f>F2+D3</f>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44047</v>
       </c>
@@ -508,10 +515,14 @@
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6">
+        <f>F3+D4</f>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44048</v>
       </c>
@@ -521,95 +532,106 @@
       <c r="C5" s="2">
         <v>0.94791666666666663</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
+      <c r="D5" s="3">
+        <v>5.75</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" ref="F5:F6" si="0">F4+D5</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44049</v>
       </c>
       <c r="B6" s="2">
         <v>0.61458333333333337</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
+      <c r="C6" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="5"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D8" s="3"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="5"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="3"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="5"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="3"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="3"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="5"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="3"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="5"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="3"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="5"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="3"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="5"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="3"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="5"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="3"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="3"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="3"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="3"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="3"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="3"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="3"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="3"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7B3C3B-6D42-43A5-B710-5E8A73734F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE62C27-8D91-4095-8C9E-47541472A145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="375" windowWidth="21600" windowHeight="11400" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
+    <workbookView xWindow="4200" yWindow="585" windowWidth="21600" windowHeight="11400" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Total Tunnit</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +568,18 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="5"/>
+      <c r="A7" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE62C27-8D91-4095-8C9E-47541472A145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4963DBB-35F6-48D7-8249-318F48FB3DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="585" windowWidth="21600" windowHeight="11400" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
+    <workbookView xWindow="3885" yWindow="1380" windowWidth="21600" windowHeight="11400" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -63,15 +63,15 @@
   </si>
   <si>
     <t>Total Tunnit</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -115,6 +115,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -472,15 +477,16 @@
       <c r="C2" s="2">
         <v>0.73958333333333337</v>
       </c>
-      <c r="D2" s="5">
-        <v>1.25</v>
+      <c r="D2" s="8">
+        <f>C2-B2</f>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="9">
         <f>D2</f>
-        <v>1.25</v>
+        <v>5.208333333333337E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -493,15 +499,16 @@
       <c r="C3" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D3" s="3">
-        <v>3</v>
+      <c r="D3" s="8">
+        <f t="shared" ref="D3:D13" si="0">C3-B3</f>
+        <v>0.125</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="9">
         <f>F2+D3</f>
-        <v>4.25</v>
+        <v>0.17708333333333337</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -514,15 +521,16 @@
       <c r="C4" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D4" s="3">
-        <v>3</v>
+      <c r="D4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="9">
         <f>F3+D4</f>
-        <v>7.25</v>
+        <v>0.30208333333333337</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -535,15 +543,16 @@
       <c r="C5" s="2">
         <v>0.94791666666666663</v>
       </c>
-      <c r="D5" s="3">
-        <v>5.75</v>
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23958333333333326</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="6">
-        <f t="shared" ref="F5:F6" si="0">F4+D5</f>
-        <v>13</v>
+      <c r="F5" s="9">
+        <f t="shared" ref="F5:F13" si="1">F4+D5</f>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -556,15 +565,16 @@
       <c r="C6" s="2">
         <v>0.78125</v>
       </c>
-      <c r="D6" s="3">
-        <v>4</v>
+      <c r="D6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666663</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>17</v>
+      <c r="F6" s="9">
+        <f t="shared" si="1"/>
+        <v>0.70833333333333326</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -574,45 +584,95 @@
       <c r="B7" s="2">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4"/>
+      <c r="C7" s="2">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="1"/>
+        <v>0.77777777777777768</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="5"/>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E8" s="4"/>
+      <c r="F8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.77777777777777768</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="5"/>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E9" s="4"/>
+      <c r="F9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.77777777777777768</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E10" s="4"/>
+      <c r="F10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.77777777777777768</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="5"/>
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E11" s="4"/>
+      <c r="F11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.77777777777777768</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="9">
+        <f t="shared" si="1"/>
+        <v>0.77777777777777768</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="9">
+        <f t="shared" si="1"/>
+        <v>0.77777777777777768</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="5"/>

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4963DBB-35F6-48D7-8249-318F48FB3DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB16AAA-5725-4A18-8A06-45C8F8FC81EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3885" yWindow="1380" windowWidth="21600" windowHeight="11400" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -116,10 +116,10 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,14 +600,23 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>0.77777777777777768</v>
+        <v>0.86111111111111105</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -618,7 +627,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="9">
         <f t="shared" si="1"/>
-        <v>0.77777777777777768</v>
+        <v>0.86111111111111105</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -630,7 +639,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="9">
         <f t="shared" si="1"/>
-        <v>0.77777777777777768</v>
+        <v>0.86111111111111105</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -641,7 +650,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="9">
         <f t="shared" si="1"/>
-        <v>0.77777777777777768</v>
+        <v>0.86111111111111105</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -652,7 +661,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <f t="shared" si="1"/>
-        <v>0.77777777777777768</v>
+        <v>0.86111111111111105</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -663,7 +672,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="9">
         <f t="shared" si="1"/>
-        <v>0.77777777777777768</v>
+        <v>0.86111111111111105</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB16AAA-5725-4A18-8A06-45C8F8FC81EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A1EB03-2815-4FFD-A7F1-F85CF6E5C52C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="1380" windowWidth="21600" windowHeight="11400" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,14 +620,23 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="9">
         <f t="shared" si="1"/>
-        <v>0.86111111111111105</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -639,7 +648,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="9">
         <f t="shared" si="1"/>
-        <v>0.86111111111111105</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -650,7 +659,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="9">
         <f t="shared" si="1"/>
-        <v>0.86111111111111105</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -661,7 +670,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <f t="shared" si="1"/>
-        <v>0.86111111111111105</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -672,7 +681,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="9">
         <f t="shared" si="1"/>
-        <v>0.86111111111111105</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A1EB03-2815-4FFD-A7F1-F85CF6E5C52C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269D358E-E753-4A9C-8C10-38B96CB84178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -120,6 +120,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -437,7 +438,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,17 +627,17 @@
       <c r="B9" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
+      <c r="C9" s="10">
+        <v>1.03125</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>0.11458333333333337</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="9">
         <f t="shared" si="1"/>
-        <v>0.94444444444444442</v>
+        <v>0.97569444444444442</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -648,7 +649,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="9">
         <f t="shared" si="1"/>
-        <v>0.94444444444444442</v>
+        <v>0.97569444444444442</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -659,7 +660,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="9">
         <f t="shared" si="1"/>
-        <v>0.94444444444444442</v>
+        <v>0.97569444444444442</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -670,7 +671,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <f t="shared" si="1"/>
-        <v>0.94444444444444442</v>
+        <v>0.97569444444444442</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -681,7 +682,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="9">
         <f t="shared" si="1"/>
-        <v>0.94444444444444442</v>
+        <v>0.97569444444444442</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269D358E-E753-4A9C-8C10-38B96CB84178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5D0212-73AD-4379-ACE8-FD5016949F8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -69,8 +69,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -115,12 +116,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -435,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB109AA-75F2-4DA8-AF6E-126BB473F4F2}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,14 +479,14 @@
       <c r="C2" s="2">
         <v>0.73958333333333337</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <f>C2-B2</f>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <f>D2</f>
         <v>5.208333333333337E-2</v>
       </c>
@@ -500,14 +501,14 @@
       <c r="C3" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <f t="shared" ref="D3:D13" si="0">C3-B3</f>
         <v>0.125</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <f>F2+D3</f>
         <v>0.17708333333333337</v>
       </c>
@@ -522,14 +523,14 @@
       <c r="C4" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f>F3+D4</f>
         <v>0.30208333333333337</v>
       </c>
@@ -544,15 +545,15 @@
       <c r="C5" s="2">
         <v>0.94791666666666663</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>0.23958333333333326</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="9">
-        <f t="shared" ref="F5:F13" si="1">F4+D5</f>
+      <c r="F5" s="8">
+        <f t="shared" ref="F5:F26" si="1">F4+D5</f>
         <v>0.54166666666666663</v>
       </c>
     </row>
@@ -566,14 +567,14 @@
       <c r="C6" s="2">
         <v>0.78125</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f t="shared" si="1"/>
         <v>0.70833333333333326</v>
       </c>
@@ -588,14 +589,14 @@
       <c r="C7" s="2">
         <v>7.9861111111111105E-2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f t="shared" si="1"/>
         <v>0.77777777777777768</v>
       </c>
@@ -610,12 +611,12 @@
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <f t="shared" si="1"/>
         <v>0.86111111111111105</v>
       </c>
@@ -627,106 +628,171 @@
       <c r="B9" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>1.03125</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>0.11458333333333337</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f t="shared" si="1"/>
         <v>0.97569444444444442</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="D10" s="8">
+      <c r="A10" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0590277777777777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="9">
-        <f t="shared" si="1"/>
-        <v>0.97569444444444442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="8">
+      <c r="E11" s="4"/>
+      <c r="F11" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0590277777777777</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="9">
-        <f t="shared" si="1"/>
-        <v>0.97569444444444442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="8">
+      <c r="E12" s="3"/>
+      <c r="F12" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0590277777777777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="9">
-        <f t="shared" si="1"/>
-        <v>0.97569444444444442</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="9">
-        <f t="shared" si="1"/>
-        <v>0.97569444444444442</v>
+      <c r="F13" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0590277777777777</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="5"/>
       <c r="E14" s="3"/>
+      <c r="F14" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0590277777777777</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="5"/>
       <c r="E15" s="3"/>
+      <c r="F15" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0590277777777777</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0590277777777777</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0590277777777777</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0590277777777777</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="5"/>
       <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0590277777777777</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0590277777777777</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="5"/>
       <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0590277777777777</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0590277777777777</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0590277777777777</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" s="6"/>
+      <c r="F24" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0590277777777777</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0590277777777777</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0590277777777777</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5D0212-73AD-4379-ACE8-FD5016949F8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDE0C66-C4EB-4849-A9E8-8744CD413363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -121,7 +121,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDE0C66-C4EB-4849-A9E8-8744CD413363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3D1112-77E5-4D71-B273-97BA0625DD98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Total Tunnit</t>
+  </si>
+  <si>
+    <t>progressio + xml</t>
+  </si>
+  <si>
+    <t>xml</t>
   </si>
 </sst>
 </file>
@@ -439,7 +445,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,21 +661,34 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="F10" s="10">
         <f t="shared" si="1"/>
         <v>1.0590277777777777</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F11" s="10">
         <f t="shared" si="1"/>
-        <v>1.0590277777777777</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -680,7 +699,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="10">
         <f t="shared" si="1"/>
-        <v>1.0590277777777777</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -691,7 +710,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="10">
         <f t="shared" si="1"/>
-        <v>1.0590277777777777</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -699,7 +718,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="10">
         <f t="shared" si="1"/>
-        <v>1.0590277777777777</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -707,7 +726,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="10">
         <f t="shared" si="1"/>
-        <v>1.0590277777777777</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -715,7 +734,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="10">
         <f t="shared" si="1"/>
-        <v>1.0590277777777777</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
@@ -723,7 +742,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="10">
         <f t="shared" si="1"/>
-        <v>1.0590277777777777</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
@@ -731,7 +750,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="10">
         <f t="shared" si="1"/>
-        <v>1.0590277777777777</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
@@ -739,7 +758,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="10">
         <f t="shared" si="1"/>
-        <v>1.0590277777777777</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
@@ -747,7 +766,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="10">
         <f t="shared" si="1"/>
-        <v>1.0590277777777777</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
@@ -755,40 +774,40 @@
       <c r="E21" s="4"/>
       <c r="F21" s="10">
         <f t="shared" si="1"/>
-        <v>1.0590277777777777</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="5"/>
       <c r="F22" s="10">
         <f t="shared" si="1"/>
-        <v>1.0590277777777777</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="5"/>
       <c r="F23" s="10">
         <f t="shared" si="1"/>
-        <v>1.0590277777777777</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" s="6"/>
       <c r="F24" s="10">
         <f t="shared" si="1"/>
-        <v>1.0590277777777777</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F25" s="10">
         <f t="shared" si="1"/>
-        <v>1.0590277777777777</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>1.0590277777777777</v>
+        <v>1.0902777777777777</v>
       </c>
     </row>
   </sheetData>

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3D1112-77E5-4D71-B273-97BA0625DD98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B670F3-378E-4E22-81BD-5B7C66FB6FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,14 +692,23 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="10">
         <f t="shared" si="1"/>
-        <v>1.0902777777777777</v>
+        <v>1.2569444444444442</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -710,7 +719,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="10">
         <f t="shared" si="1"/>
-        <v>1.0902777777777777</v>
+        <v>1.2569444444444442</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -718,7 +727,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="10">
         <f t="shared" si="1"/>
-        <v>1.0902777777777777</v>
+        <v>1.2569444444444442</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -726,7 +735,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="10">
         <f t="shared" si="1"/>
-        <v>1.0902777777777777</v>
+        <v>1.2569444444444442</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -734,7 +743,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="10">
         <f t="shared" si="1"/>
-        <v>1.0902777777777777</v>
+        <v>1.2569444444444442</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
@@ -742,7 +751,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="10">
         <f t="shared" si="1"/>
-        <v>1.0902777777777777</v>
+        <v>1.2569444444444442</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
@@ -750,7 +759,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="10">
         <f t="shared" si="1"/>
-        <v>1.0902777777777777</v>
+        <v>1.2569444444444442</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
@@ -758,7 +767,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="10">
         <f t="shared" si="1"/>
-        <v>1.0902777777777777</v>
+        <v>1.2569444444444442</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
@@ -766,7 +775,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="10">
         <f t="shared" si="1"/>
-        <v>1.0902777777777777</v>
+        <v>1.2569444444444442</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
@@ -774,40 +783,40 @@
       <c r="E21" s="4"/>
       <c r="F21" s="10">
         <f t="shared" si="1"/>
-        <v>1.0902777777777777</v>
+        <v>1.2569444444444442</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="5"/>
       <c r="F22" s="10">
         <f t="shared" si="1"/>
-        <v>1.0902777777777777</v>
+        <v>1.2569444444444442</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="5"/>
       <c r="F23" s="10">
         <f t="shared" si="1"/>
-        <v>1.0902777777777777</v>
+        <v>1.2569444444444442</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" s="6"/>
       <c r="F24" s="10">
         <f t="shared" si="1"/>
-        <v>1.0902777777777777</v>
+        <v>1.2569444444444442</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F25" s="10">
         <f t="shared" si="1"/>
-        <v>1.0902777777777777</v>
+        <v>1.2569444444444442</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>1.0902777777777777</v>
+        <v>1.2569444444444442</v>
       </c>
     </row>
   </sheetData>

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B670F3-378E-4E22-81BD-5B7C66FB6FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29450D34-EF93-4274-9263-8AC50C8C4968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>xml</t>
+  </si>
+  <si>
+    <t>xml + unity</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,16 +702,18 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="C12" s="9">
-        <v>1</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
-        <v>0.16666666666666663</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>0.14583333333333326</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F12" s="10">
         <f t="shared" si="1"/>
-        <v>1.2569444444444442</v>
+        <v>1.2361111111111109</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -719,7 +724,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="10">
         <f t="shared" si="1"/>
-        <v>1.2569444444444442</v>
+        <v>1.2361111111111109</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -727,7 +732,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="10">
         <f t="shared" si="1"/>
-        <v>1.2569444444444442</v>
+        <v>1.2361111111111109</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -735,7 +740,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="10">
         <f t="shared" si="1"/>
-        <v>1.2569444444444442</v>
+        <v>1.2361111111111109</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -743,7 +748,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="10">
         <f t="shared" si="1"/>
-        <v>1.2569444444444442</v>
+        <v>1.2361111111111109</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
@@ -751,7 +756,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="10">
         <f t="shared" si="1"/>
-        <v>1.2569444444444442</v>
+        <v>1.2361111111111109</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
@@ -759,7 +764,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="10">
         <f t="shared" si="1"/>
-        <v>1.2569444444444442</v>
+        <v>1.2361111111111109</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
@@ -767,7 +772,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="10">
         <f t="shared" si="1"/>
-        <v>1.2569444444444442</v>
+        <v>1.2361111111111109</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
@@ -775,7 +780,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="10">
         <f t="shared" si="1"/>
-        <v>1.2569444444444442</v>
+        <v>1.2361111111111109</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
@@ -783,40 +788,40 @@
       <c r="E21" s="4"/>
       <c r="F21" s="10">
         <f t="shared" si="1"/>
-        <v>1.2569444444444442</v>
+        <v>1.2361111111111109</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="5"/>
       <c r="F22" s="10">
         <f t="shared" si="1"/>
-        <v>1.2569444444444442</v>
+        <v>1.2361111111111109</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="5"/>
       <c r="F23" s="10">
         <f t="shared" si="1"/>
-        <v>1.2569444444444442</v>
+        <v>1.2361111111111109</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" s="6"/>
       <c r="F24" s="10">
         <f t="shared" si="1"/>
-        <v>1.2569444444444442</v>
+        <v>1.2361111111111109</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F25" s="10">
         <f t="shared" si="1"/>
-        <v>1.2569444444444442</v>
+        <v>1.2361111111111109</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>1.2569444444444442</v>
+        <v>1.2361111111111109</v>
       </c>
     </row>
   </sheetData>

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29450D34-EF93-4274-9263-8AC50C8C4968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19FDCB2-31B5-4AA5-8005-0AD25E1BE835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>xml + unity</t>
+  </si>
+  <si>
+    <t>xml toimii unityssa</t>
+  </si>
+  <si>
+    <t>database uudelleenmaarittely + unity</t>
   </si>
 </sst>
 </file>
@@ -448,7 +454,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,22 +723,35 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1.03125</v>
+      </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>0.19791666666666663</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F13" s="10">
         <f t="shared" si="1"/>
-        <v>1.2361111111111109</v>
+        <v>1.4340277777777777</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="5"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F14" s="10">
         <f t="shared" si="1"/>
-        <v>1.2361111111111109</v>
+        <v>1.4340277777777777</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -740,7 +759,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="10">
         <f t="shared" si="1"/>
-        <v>1.2361111111111109</v>
+        <v>1.4340277777777777</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -748,7 +767,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="10">
         <f t="shared" si="1"/>
-        <v>1.2361111111111109</v>
+        <v>1.4340277777777777</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
@@ -756,7 +775,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="10">
         <f t="shared" si="1"/>
-        <v>1.2361111111111109</v>
+        <v>1.4340277777777777</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
@@ -764,7 +783,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="10">
         <f t="shared" si="1"/>
-        <v>1.2361111111111109</v>
+        <v>1.4340277777777777</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
@@ -772,7 +791,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="10">
         <f t="shared" si="1"/>
-        <v>1.2361111111111109</v>
+        <v>1.4340277777777777</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
@@ -780,7 +799,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="10">
         <f t="shared" si="1"/>
-        <v>1.2361111111111109</v>
+        <v>1.4340277777777777</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
@@ -788,40 +807,40 @@
       <c r="E21" s="4"/>
       <c r="F21" s="10">
         <f t="shared" si="1"/>
-        <v>1.2361111111111109</v>
+        <v>1.4340277777777777</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="5"/>
       <c r="F22" s="10">
         <f t="shared" si="1"/>
-        <v>1.2361111111111109</v>
+        <v>1.4340277777777777</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="5"/>
       <c r="F23" s="10">
         <f t="shared" si="1"/>
-        <v>1.2361111111111109</v>
+        <v>1.4340277777777777</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" s="6"/>
       <c r="F24" s="10">
         <f t="shared" si="1"/>
-        <v>1.2361111111111109</v>
+        <v>1.4340277777777777</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F25" s="10">
         <f t="shared" si="1"/>
-        <v>1.2361111111111109</v>
+        <v>1.4340277777777777</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>1.2361111111111109</v>
+        <v>1.4340277777777777</v>
       </c>
     </row>
   </sheetData>

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19FDCB2-31B5-4AA5-8005-0AD25E1BE835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1F16DC-1436-4AFC-B5C6-27A1928860D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="11400" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,18 +730,18 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="C13" s="9">
-        <v>1.03125</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>0.19791666666666663</v>
+        <v>0.20833333333333337</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="1"/>
-        <v>1.4340277777777777</v>
+        <v>1.4444444444444442</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -751,7 +751,7 @@
       </c>
       <c r="F14" s="10">
         <f t="shared" si="1"/>
-        <v>1.4340277777777777</v>
+        <v>1.4444444444444442</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="10">
         <f t="shared" si="1"/>
-        <v>1.4340277777777777</v>
+        <v>1.4444444444444442</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -767,7 +767,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="10">
         <f t="shared" si="1"/>
-        <v>1.4340277777777777</v>
+        <v>1.4444444444444442</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="10">
         <f t="shared" si="1"/>
-        <v>1.4340277777777777</v>
+        <v>1.4444444444444442</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="10">
         <f t="shared" si="1"/>
-        <v>1.4340277777777777</v>
+        <v>1.4444444444444442</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
@@ -791,7 +791,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="10">
         <f t="shared" si="1"/>
-        <v>1.4340277777777777</v>
+        <v>1.4444444444444442</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="10">
         <f t="shared" si="1"/>
-        <v>1.4340277777777777</v>
+        <v>1.4444444444444442</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
@@ -807,40 +807,40 @@
       <c r="E21" s="4"/>
       <c r="F21" s="10">
         <f t="shared" si="1"/>
-        <v>1.4340277777777777</v>
+        <v>1.4444444444444442</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="5"/>
       <c r="F22" s="10">
         <f t="shared" si="1"/>
-        <v>1.4340277777777777</v>
+        <v>1.4444444444444442</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="5"/>
       <c r="F23" s="10">
         <f t="shared" si="1"/>
-        <v>1.4340277777777777</v>
+        <v>1.4444444444444442</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" s="6"/>
       <c r="F24" s="10">
         <f t="shared" si="1"/>
-        <v>1.4340277777777777</v>
+        <v>1.4444444444444442</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F25" s="10">
         <f t="shared" si="1"/>
-        <v>1.4340277777777777</v>
+        <v>1.4444444444444442</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>1.4340277777777777</v>
+        <v>1.4444444444444442</v>
       </c>
     </row>
   </sheetData>

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1F16DC-1436-4AFC-B5C6-27A1928860D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3EBF5D-D969-4E94-8E7B-BD10BB1A02DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="11400" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
+    <workbookView xWindow="34515" yWindow="2055" windowWidth="17970" windowHeight="11400" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -127,10 +127,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -451,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB109AA-75F2-4DA8-AF6E-126BB473F4F2}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,14 +490,14 @@
       <c r="C2" s="2">
         <v>0.73958333333333337</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <f>C2-B2</f>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <f>D2</f>
         <v>5.208333333333337E-2</v>
       </c>
@@ -516,14 +512,14 @@
       <c r="C3" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3:D13" si="0">C3-B3</f>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D29" si="0">C3-B3</f>
         <v>0.125</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <f>F2+D3</f>
         <v>0.17708333333333337</v>
       </c>
@@ -538,14 +534,14 @@
       <c r="C4" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <f>F3+D4</f>
         <v>0.30208333333333337</v>
       </c>
@@ -560,14 +556,14 @@
       <c r="C5" s="2">
         <v>0.94791666666666663</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>0.23958333333333326</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <f t="shared" ref="F5:F26" si="1">F4+D5</f>
         <v>0.54166666666666663</v>
       </c>
@@ -582,14 +578,14 @@
       <c r="C6" s="2">
         <v>0.78125</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <f t="shared" si="1"/>
         <v>0.70833333333333326</v>
       </c>
@@ -604,14 +600,14 @@
       <c r="C7" s="2">
         <v>7.9861111111111105E-2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <f t="shared" si="1"/>
         <v>0.77777777777777768</v>
       </c>
@@ -626,12 +622,12 @@
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <f t="shared" si="1"/>
         <v>0.86111111111111105</v>
       </c>
@@ -643,15 +639,15 @@
       <c r="B9" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>1.03125</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>0.11458333333333337</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <f t="shared" si="1"/>
         <v>0.97569444444444442</v>
       </c>
@@ -666,14 +662,14 @@
       <c r="C10" s="2">
         <v>0.875</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <f t="shared" si="1"/>
         <v>1.0590277777777777</v>
       </c>
@@ -688,14 +684,14 @@
       <c r="C11" s="2">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <f t="shared" si="1"/>
         <v>1.0902777777777777</v>
       </c>
@@ -707,17 +703,17 @@
       <c r="B12" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <f t="shared" si="0"/>
         <v>0.14583333333333326</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <f t="shared" si="1"/>
         <v>1.2361111111111109</v>
       </c>
@@ -729,118 +725,186 @@
       <c r="B13" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <v>1.0416666666666667</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>0.20833333333333337</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="8">
         <f t="shared" si="1"/>
         <v>1.4444444444444442</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="5"/>
+      <c r="A14" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333337</v>
+      </c>
       <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="10">
-        <f t="shared" si="1"/>
-        <v>1.4444444444444442</v>
+      <c r="F14" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6527777777777777</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="5"/>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="10">
-        <f t="shared" si="1"/>
-        <v>1.4444444444444442</v>
+      <c r="F15" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6527777777777777</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="5"/>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="10">
-        <f t="shared" si="1"/>
-        <v>1.4444444444444442</v>
+      <c r="F16" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6527777777777777</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="5"/>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="10">
-        <f t="shared" si="1"/>
-        <v>1.4444444444444442</v>
+      <c r="F17" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6527777777777777</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="5"/>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="10">
-        <f t="shared" si="1"/>
-        <v>1.4444444444444442</v>
+      <c r="F18" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6527777777777777</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="5"/>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="10">
-        <f t="shared" si="1"/>
-        <v>1.4444444444444442</v>
+      <c r="F19" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6527777777777777</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="10">
-        <f t="shared" si="1"/>
-        <v>1.4444444444444442</v>
+      <c r="F20" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6527777777777777</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="5"/>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="10">
-        <f t="shared" si="1"/>
-        <v>1.4444444444444442</v>
+      <c r="F21" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6527777777777777</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="5"/>
-      <c r="F22" s="10">
-        <f t="shared" si="1"/>
-        <v>1.4444444444444442</v>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6527777777777777</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="5"/>
-      <c r="F23" s="10">
-        <f t="shared" si="1"/>
-        <v>1.4444444444444442</v>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6527777777777777</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="6"/>
-      <c r="F24" s="10">
-        <f t="shared" si="1"/>
-        <v>1.4444444444444442</v>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6527777777777777</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F25" s="10">
-        <f t="shared" si="1"/>
-        <v>1.4444444444444442</v>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6527777777777777</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>1.4444444444444442</v>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6527777777777777</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3EBF5D-D969-4E94-8E7B-BD10BB1A02DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA53A9D-F1DE-4D8E-9FC1-39020DB0DD7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34515" yWindow="2055" windowWidth="17970" windowHeight="11400" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
+    <workbookView xWindow="32175" yWindow="1815" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>xml toimii unityssa</t>
   </si>
   <si>
-    <t>database uudelleenmaarittely + unity</t>
+    <t>database uudelleenmaarittely + unity UI</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,18 +748,18 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>1.0104166666666667</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="0"/>
-        <v>0.20833333333333337</v>
+        <v>0.21875000000000011</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="1"/>
-        <v>1.6527777777777777</v>
+        <v>1.6631944444444442</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -770,7 +770,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="8">
         <f t="shared" si="1"/>
-        <v>1.6527777777777777</v>
+        <v>1.6631944444444442</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -781,7 +781,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="8">
         <f t="shared" si="1"/>
-        <v>1.6527777777777777</v>
+        <v>1.6631944444444442</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="8">
         <f t="shared" si="1"/>
-        <v>1.6527777777777777</v>
+        <v>1.6631944444444442</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
@@ -803,7 +803,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="8">
         <f t="shared" si="1"/>
-        <v>1.6527777777777777</v>
+        <v>1.6631944444444442</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
@@ -814,7 +814,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="8">
         <f t="shared" si="1"/>
-        <v>1.6527777777777777</v>
+        <v>1.6631944444444442</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
@@ -825,7 +825,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="8">
         <f t="shared" si="1"/>
-        <v>1.6527777777777777</v>
+        <v>1.6631944444444442</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
@@ -836,7 +836,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="8">
         <f t="shared" si="1"/>
-        <v>1.6527777777777777</v>
+        <v>1.6631944444444442</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
@@ -846,7 +846,7 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="1"/>
-        <v>1.6527777777777777</v>
+        <v>1.6631944444444442</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
@@ -856,7 +856,7 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="1"/>
-        <v>1.6527777777777777</v>
+        <v>1.6631944444444442</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
       </c>
       <c r="F24" s="8">
         <f t="shared" si="1"/>
-        <v>1.6527777777777777</v>
+        <v>1.6631944444444442</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
@@ -876,7 +876,7 @@
       </c>
       <c r="F25" s="8">
         <f t="shared" si="1"/>
-        <v>1.6527777777777777</v>
+        <v>1.6631944444444442</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
@@ -886,7 +886,7 @@
       </c>
       <c r="F26" s="8">
         <f t="shared" si="1"/>
-        <v>1.6527777777777777</v>
+        <v>1.6631944444444442</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA53A9D-F1DE-4D8E-9FC1-39020DB0DD7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CDBC5D-05C4-4E90-B745-85FFDF261B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32175" yWindow="1815" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,14 +763,23 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
       <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22916666666666663</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="8">
         <f t="shared" si="1"/>
-        <v>1.6631944444444442</v>
+        <v>1.8923611111111107</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -781,7 +790,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="8">
         <f t="shared" si="1"/>
-        <v>1.6631944444444442</v>
+        <v>1.8923611111111107</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
@@ -792,7 +801,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="8">
         <f t="shared" si="1"/>
-        <v>1.6631944444444442</v>
+        <v>1.8923611111111107</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
@@ -803,7 +812,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="8">
         <f t="shared" si="1"/>
-        <v>1.6631944444444442</v>
+        <v>1.8923611111111107</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
@@ -814,7 +823,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="8">
         <f t="shared" si="1"/>
-        <v>1.6631944444444442</v>
+        <v>1.8923611111111107</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
@@ -825,7 +834,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="8">
         <f t="shared" si="1"/>
-        <v>1.6631944444444442</v>
+        <v>1.8923611111111107</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
@@ -836,7 +845,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="8">
         <f t="shared" si="1"/>
-        <v>1.6631944444444442</v>
+        <v>1.8923611111111107</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
@@ -846,7 +855,7 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="1"/>
-        <v>1.6631944444444442</v>
+        <v>1.8923611111111107</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
@@ -856,7 +865,7 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="1"/>
-        <v>1.6631944444444442</v>
+        <v>1.8923611111111107</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
@@ -866,7 +875,7 @@
       </c>
       <c r="F24" s="8">
         <f t="shared" si="1"/>
-        <v>1.6631944444444442</v>
+        <v>1.8923611111111107</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
@@ -876,7 +885,7 @@
       </c>
       <c r="F25" s="8">
         <f t="shared" si="1"/>
-        <v>1.6631944444444442</v>
+        <v>1.8923611111111107</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
@@ -886,7 +895,7 @@
       </c>
       <c r="F26" s="8">
         <f t="shared" si="1"/>
-        <v>1.6631944444444442</v>
+        <v>1.8923611111111107</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CDBC5D-05C4-4E90-B745-85FFDF261B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94FF0D0-6C31-4689-8A24-5A6A2CC639DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32175" yWindow="1815" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
+    <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,16 +770,16 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>1.0208333333333333</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>0.22916666666666663</v>
+        <v>0.24999999999999989</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="8">
         <f t="shared" si="1"/>
-        <v>1.8923611111111107</v>
+        <v>1.9131944444444442</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -790,7 +790,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="8">
         <f t="shared" si="1"/>
-        <v>1.8923611111111107</v>
+        <v>1.9131944444444442</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
@@ -801,7 +801,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="8">
         <f t="shared" si="1"/>
-        <v>1.8923611111111107</v>
+        <v>1.9131944444444442</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
@@ -812,7 +812,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="8">
         <f t="shared" si="1"/>
-        <v>1.8923611111111107</v>
+        <v>1.9131944444444442</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
@@ -823,7 +823,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="8">
         <f t="shared" si="1"/>
-        <v>1.8923611111111107</v>
+        <v>1.9131944444444442</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="8">
         <f t="shared" si="1"/>
-        <v>1.8923611111111107</v>
+        <v>1.9131944444444442</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="8">
         <f t="shared" si="1"/>
-        <v>1.8923611111111107</v>
+        <v>1.9131944444444442</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
@@ -855,7 +855,7 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="1"/>
-        <v>1.8923611111111107</v>
+        <v>1.9131944444444442</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
@@ -865,7 +865,7 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" si="1"/>
-        <v>1.8923611111111107</v>
+        <v>1.9131944444444442</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
@@ -875,7 +875,7 @@
       </c>
       <c r="F24" s="8">
         <f t="shared" si="1"/>
-        <v>1.8923611111111107</v>
+        <v>1.9131944444444442</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
@@ -885,7 +885,7 @@
       </c>
       <c r="F25" s="8">
         <f t="shared" si="1"/>
-        <v>1.8923611111111107</v>
+        <v>1.9131944444444442</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
       </c>
       <c r="F26" s="8">
         <f t="shared" si="1"/>
-        <v>1.8923611111111107</v>
+        <v>1.9131944444444442</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="TamaTyokirja" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94FF0D0-6C31-4689-8A24-5A6A2CC639DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D35942-9E42-480E-8D1C-BB2520941D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>database uudelleenmaarittely + unity UI</t>
+  </si>
+  <si>
+    <t>Tunteja jaljella</t>
+  </si>
+  <si>
+    <t>eli 50%</t>
+  </si>
+  <si>
+    <t>Total jaljella</t>
+  </si>
+  <si>
+    <t>database korjaus + unity UI + character info</t>
   </si>
 </sst>
 </file>
@@ -86,7 +98,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="174" formatCode="[h]:mm"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -130,9 +142,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -447,10 +461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB109AA-75F2-4DA8-AF6E-126BB473F4F2}">
-  <dimension ref="A1:F29"/>
+  <sheetPr codeName="Taul1"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,9 +473,11 @@
     <col min="1" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="50.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -479,8 +496,11 @@
       <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44009</v>
       </c>
@@ -490,19 +510,29 @@
       <c r="C2" s="2">
         <v>0.73958333333333337</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="7">
         <f>C2-B2</f>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="8">
         <f>D2</f>
         <v>5.208333333333337E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="8">
+        <f>H2-F2</f>
+        <v>2.65625</v>
+      </c>
+      <c r="H2" s="8">
+        <v>2.7083333333333335</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44041</v>
       </c>
@@ -512,19 +542,23 @@
       <c r="C3" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D3" s="5">
-        <f t="shared" ref="D3:D29" si="0">C3-B3</f>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D41" si="0">C3-B3</f>
         <v>0.125</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="8">
         <f>F2+D3</f>
         <v>0.17708333333333337</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="8">
+        <f>H2-F3</f>
+        <v>2.53125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44047</v>
       </c>
@@ -534,19 +568,23 @@
       <c r="C4" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="7">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="8">
         <f>F3+D4</f>
         <v>0.30208333333333337</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="8">
+        <f>H2-F4</f>
+        <v>2.40625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44048</v>
       </c>
@@ -556,19 +594,23 @@
       <c r="C5" s="2">
         <v>0.94791666666666663</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>0.23958333333333326</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="8">
         <f t="shared" ref="F5:F26" si="1">F4+D5</f>
         <v>0.54166666666666663</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="8">
+        <f>H2-F5</f>
+        <v>2.166666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44049</v>
       </c>
@@ -578,19 +620,23 @@
       <c r="C6" s="2">
         <v>0.78125</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="8">
         <f t="shared" si="1"/>
         <v>0.70833333333333326</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="8">
+        <f>H2-F6</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44063</v>
       </c>
@@ -600,19 +646,23 @@
       <c r="C7" s="2">
         <v>7.9861111111111105E-2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="8">
         <f t="shared" si="1"/>
         <v>0.77777777777777768</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="8">
+        <f>H2-F7</f>
+        <v>1.9305555555555558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44075</v>
       </c>
@@ -622,37 +672,45 @@
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="6">
+      <c r="F8" s="8">
         <f t="shared" si="1"/>
         <v>0.86111111111111105</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="8">
+        <f>H2-F8</f>
+        <v>1.8472222222222223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44076</v>
       </c>
       <c r="B9" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>1.03125</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>0.11458333333333337</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="6">
+      <c r="F9" s="8">
         <f t="shared" si="1"/>
         <v>0.97569444444444442</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="8">
+        <f>H2-F9</f>
+        <v>1.7326388888888891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44077</v>
       </c>
@@ -662,7 +720,7 @@
       <c r="C10" s="2">
         <v>0.875</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
@@ -673,8 +731,12 @@
         <f t="shared" si="1"/>
         <v>1.0590277777777777</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="8">
+        <f>H2-F10</f>
+        <v>1.6493055555555558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44077</v>
       </c>
@@ -684,7 +746,7 @@
       <c r="C11" s="2">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
@@ -695,18 +757,22 @@
         <f t="shared" si="1"/>
         <v>1.0902777777777777</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="8">
+        <f>H2-F11</f>
+        <v>1.6180555555555558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44078</v>
       </c>
       <c r="B12" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>0.14583333333333326</v>
       </c>
@@ -717,18 +783,22 @@
         <f t="shared" si="1"/>
         <v>1.2361111111111109</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="8">
+        <f>H2-F12</f>
+        <v>1.4722222222222225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44079</v>
       </c>
       <c r="B13" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>1.0416666666666667</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="7">
         <f t="shared" si="0"/>
         <v>0.20833333333333337</v>
       </c>
@@ -739,18 +809,22 @@
         <f t="shared" si="1"/>
         <v>1.4444444444444442</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="8">
+        <f>H2-F13</f>
+        <v>1.2638888888888893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44080</v>
       </c>
       <c r="B14" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>1.0104166666666667</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="7">
         <f t="shared" si="0"/>
         <v>0.21875000000000011</v>
       </c>
@@ -761,29 +835,42 @@
         <f t="shared" si="1"/>
         <v>1.6631944444444442</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="8">
+        <f>H2-F14</f>
+        <v>1.0451388888888893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44081</v>
       </c>
       <c r="B15" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>1.0208333333333333</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="7">
         <f t="shared" si="0"/>
         <v>0.24999999999999989</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F15" s="8">
         <f t="shared" si="1"/>
         <v>1.9131944444444442</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="5">
+      <c r="G15" s="8">
+        <f>H2-F15+H2</f>
+        <v>3.5034722222222228</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -792,9 +879,13 @@
         <f t="shared" si="1"/>
         <v>1.9131944444444442</v>
       </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="5">
+      <c r="G16" s="8">
+        <f>H2-F16+H2</f>
+        <v>3.5034722222222228</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -803,9 +894,13 @@
         <f t="shared" si="1"/>
         <v>1.9131944444444442</v>
       </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="5">
+      <c r="G17" s="8">
+        <f>H2-F17+H2</f>
+        <v>3.5034722222222228</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -814,9 +909,13 @@
         <f t="shared" si="1"/>
         <v>1.9131944444444442</v>
       </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="5">
+      <c r="G18" s="8">
+        <f>H2-F18+H2</f>
+        <v>3.5034722222222228</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -825,9 +924,13 @@
         <f t="shared" si="1"/>
         <v>1.9131944444444442</v>
       </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="5">
+      <c r="G19" s="8">
+        <f>H2-F19+H2</f>
+        <v>3.5034722222222228</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -836,9 +939,13 @@
         <f t="shared" si="1"/>
         <v>1.9131944444444442</v>
       </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="5">
+      <c r="G20" s="8">
+        <f>H2-F20+H2</f>
+        <v>3.5034722222222228</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -847,9 +954,13 @@
         <f t="shared" si="1"/>
         <v>1.9131944444444442</v>
       </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="5">
+      <c r="G21" s="8">
+        <f>H2-F21+H2</f>
+        <v>3.5034722222222228</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -857,9 +968,13 @@
         <f t="shared" si="1"/>
         <v>1.9131944444444442</v>
       </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="5">
+      <c r="G22" s="8">
+        <f>H2-F22+H2</f>
+        <v>3.5034722222222228</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -867,9 +982,13 @@
         <f t="shared" si="1"/>
         <v>1.9131944444444442</v>
       </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="5">
+      <c r="G23" s="8">
+        <f>H2-F23+H2</f>
+        <v>3.5034722222222228</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -877,9 +996,13 @@
         <f t="shared" si="1"/>
         <v>1.9131944444444442</v>
       </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="5">
+      <c r="G24" s="8">
+        <f>H2-F24+H2</f>
+        <v>3.5034722222222228</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -887,9 +1010,13 @@
         <f t="shared" si="1"/>
         <v>1.9131944444444442</v>
       </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D26" s="5">
+      <c r="G25" s="8">
+        <f>H2-F25+H2</f>
+        <v>3.5034722222222228</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -897,24 +1024,111 @@
         <f t="shared" si="1"/>
         <v>1.9131944444444442</v>
       </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D28" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G26" s="8">
+        <f>H2-F26+H2</f>
+        <v>3.5034722222222228</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D31" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D32" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D41" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D35942-9E42-480E-8D1C-BB2520941D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8806F0-E97F-4575-904B-039531A5BFEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>database korjaus + unity UI + character info</t>
+  </si>
+  <si>
+    <t>eli verrattuna 100%</t>
+  </si>
+  <si>
+    <t>Verrataan puoleen, koska excel ei osaa maaritella isoja tunteja</t>
+  </si>
+  <si>
+    <t>Unity UI page view swap + character funktioita ja kehityksprosessin uudelleenajattelua Unity kokemuksien perusteella</t>
   </si>
 </sst>
 </file>
@@ -98,7 +107,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="174" formatCode="[h]:mm"/>
+    <numFmt numFmtId="165" formatCode="[h]:mm"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -129,13 +138,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -143,10 +149,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -465,7 +480,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,26 +493,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -510,22 +528,22 @@
       <c r="C2" s="2">
         <v>0.73958333333333337</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <f>C2-B2</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <f>D2</f>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <f>H2-F2</f>
         <v>2.65625</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>2.7083333333333335</v>
       </c>
       <c r="I2" t="s">
@@ -542,18 +560,18 @@
       <c r="C3" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3:D41" si="0">C3-B3</f>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D40" si="0">C3-B3</f>
         <v>0.125</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <f>F2+D3</f>
         <v>0.17708333333333337</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <f>H2-F3</f>
         <v>2.53125</v>
       </c>
@@ -568,18 +586,18 @@
       <c r="C4" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <f>F3+D4</f>
         <v>0.30208333333333337</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <f>H2-F4</f>
         <v>2.40625</v>
       </c>
@@ -594,18 +612,18 @@
       <c r="C5" s="2">
         <v>0.94791666666666663</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>0.23958333333333326</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <f t="shared" ref="F5:F26" si="1">F4+D5</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <f>H2-F5</f>
         <v>2.166666666666667</v>
       </c>
@@ -620,18 +638,18 @@
       <c r="C6" s="2">
         <v>0.78125</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>0.70833333333333326</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <f>H2-F6</f>
         <v>2</v>
       </c>
@@ -646,18 +664,18 @@
       <c r="C7" s="2">
         <v>7.9861111111111105E-2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <f t="shared" si="1"/>
         <v>0.77777777777777768</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <f>H2-F7</f>
         <v>1.9305555555555558</v>
       </c>
@@ -672,16 +690,16 @@
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="8">
+      <c r="E8" s="8"/>
+      <c r="F8" s="7">
         <f t="shared" si="1"/>
         <v>0.86111111111111105</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <f>H2-F8</f>
         <v>1.8472222222222223</v>
       </c>
@@ -693,19 +711,19 @@
       <c r="B9" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>1.03125</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>0.11458333333333337</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="8">
+      <c r="E9" s="8"/>
+      <c r="F9" s="7">
         <f t="shared" si="1"/>
         <v>0.97569444444444442</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <f>H2-F9</f>
         <v>1.7326388888888891</v>
       </c>
@@ -720,18 +738,18 @@
       <c r="C10" s="2">
         <v>0.875</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <f t="shared" si="1"/>
         <v>1.0590277777777777</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <f>H2-F10</f>
         <v>1.6493055555555558</v>
       </c>
@@ -746,18 +764,18 @@
       <c r="C11" s="2">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <f t="shared" si="1"/>
         <v>1.0902777777777777</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <f>H2-F11</f>
         <v>1.6180555555555558</v>
       </c>
@@ -769,21 +787,21 @@
       <c r="B12" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>0.14583333333333326</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f t="shared" si="1"/>
         <v>1.2361111111111109</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <f>H2-F12</f>
         <v>1.4722222222222225</v>
       </c>
@@ -795,21 +813,21 @@
       <c r="B13" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>1.0416666666666667</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <f t="shared" si="1"/>
         <v>1.4444444444444442</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <f>H2-F13</f>
         <v>1.2638888888888893</v>
       </c>
@@ -821,21 +839,21 @@
       <c r="B14" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>1.0104166666666667</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>0.21875000000000011</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <f t="shared" si="1"/>
         <v>1.6631944444444442</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <f>H2-F14</f>
         <v>1.0451388888888893</v>
       </c>
@@ -847,288 +865,308 @@
       <c r="B15" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>1.0208333333333333</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>0.24999999999999989</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <f t="shared" si="1"/>
         <v>1.9131944444444442</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <f>H2-F15+H2</f>
         <v>3.5034722222222228</v>
       </c>
       <c r="H15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="8">
-        <f t="shared" si="1"/>
-        <v>1.9131944444444442</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.21875</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1319444444444442</v>
+      </c>
+      <c r="G16" s="7">
         <f>H2-F16+H2</f>
-        <v>3.5034722222222228</v>
+        <v>3.2847222222222228</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="8">
-        <f t="shared" si="1"/>
-        <v>1.9131944444444442</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1319444444444442</v>
+      </c>
+      <c r="G17" s="7">
         <f>H2-F17+H2</f>
-        <v>3.5034722222222228</v>
+        <v>3.2847222222222228</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="8">
-        <f t="shared" si="1"/>
-        <v>1.9131944444444442</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1319444444444442</v>
+      </c>
+      <c r="G18" s="7">
         <f>H2-F18+H2</f>
-        <v>3.5034722222222228</v>
+        <v>3.2847222222222228</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="8">
-        <f t="shared" si="1"/>
-        <v>1.9131944444444442</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="D19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1319444444444442</v>
+      </c>
+      <c r="G19" s="7">
         <f>H2-F19+H2</f>
-        <v>3.5034722222222228</v>
+        <v>3.2847222222222228</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="8">
-        <f t="shared" si="1"/>
-        <v>1.9131944444444442</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="D20" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1319444444444442</v>
+      </c>
+      <c r="G20" s="7">
         <f>H2-F20+H2</f>
-        <v>3.5034722222222228</v>
+        <v>3.2847222222222228</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="8">
-        <f t="shared" si="1"/>
-        <v>1.9131944444444442</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="D21" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1319444444444442</v>
+      </c>
+      <c r="G21" s="7">
         <f>H2-F21+H2</f>
-        <v>3.5034722222222228</v>
+        <v>3.2847222222222228</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" si="1"/>
-        <v>1.9131944444444442</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="D22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1319444444444442</v>
+      </c>
+      <c r="G22" s="7">
         <f>H2-F22+H2</f>
-        <v>3.5034722222222228</v>
+        <v>3.2847222222222228</v>
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="1"/>
-        <v>1.9131944444444442</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="D23" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1319444444444442</v>
+      </c>
+      <c r="G23" s="7">
         <f>H2-F23+H2</f>
-        <v>3.5034722222222228</v>
+        <v>3.2847222222222228</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" si="1"/>
-        <v>1.9131944444444442</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="D24" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1319444444444442</v>
+      </c>
+      <c r="G24" s="7">
         <f>H2-F24+H2</f>
-        <v>3.5034722222222228</v>
+        <v>3.2847222222222228</v>
       </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <f t="shared" si="1"/>
-        <v>1.9131944444444442</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="D25" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1319444444444442</v>
+      </c>
+      <c r="G25" s="7">
         <f>H2-F25+H2</f>
-        <v>3.5034722222222228</v>
+        <v>3.2847222222222228</v>
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
-        <f t="shared" si="1"/>
-        <v>1.9131944444444442</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="D26" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1319444444444442</v>
+      </c>
+      <c r="G26" s="7">
         <f>H2-F26+H2</f>
-        <v>3.5034722222222228</v>
+        <v>3.2847222222222228</v>
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="D27" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="8"/>
+      <c r="D28" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="8"/>
+      <c r="D29" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="8"/>
+      <c r="D30" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D31" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="8"/>
+      <c r="D31" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D32" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="8"/>
+      <c r="D32" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="8"/>
+      <c r="D33" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D34" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="8"/>
+      <c r="D34" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="8"/>
+      <c r="D35" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="8"/>
+      <c r="D36" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="8"/>
+      <c r="D37" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D38" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="8"/>
+      <c r="D38" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D39" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="8"/>
+      <c r="D39" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D41" s="5"/>
+      <c r="D41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8806F0-E97F-4575-904B-039531A5BFEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DD822A-2EF0-4568-BF84-E53E81B93996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Unity UI page view swap + character funktioita ja kehityksprosessin uudelleenajattelua Unity kokemuksien perusteella</t>
+  </si>
+  <si>
+    <t>XML ja character (UI baseline valmis)</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,22 +919,33 @@
         <v>3.2847222222222228</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F17" s="7">
         <f t="shared" si="1"/>
-        <v>2.1319444444444442</v>
+        <v>2.2986111111111107</v>
       </c>
       <c r="G17" s="7">
         <f>H2-F17+H2</f>
-        <v>3.2847222222222228</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+        <v>3.1180555555555562</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -939,14 +953,14 @@
       <c r="E18" s="8"/>
       <c r="F18" s="7">
         <f t="shared" si="1"/>
-        <v>2.1319444444444442</v>
+        <v>2.2986111111111107</v>
       </c>
       <c r="G18" s="7">
         <f>H2-F18+H2</f>
-        <v>3.2847222222222228</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+        <v>3.1180555555555562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D19" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -954,14 +968,14 @@
       <c r="E19" s="8"/>
       <c r="F19" s="7">
         <f t="shared" si="1"/>
-        <v>2.1319444444444442</v>
+        <v>2.2986111111111107</v>
       </c>
       <c r="G19" s="7">
         <f>H2-F19+H2</f>
-        <v>3.2847222222222228</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+        <v>3.1180555555555562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D20" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -969,14 +983,14 @@
       <c r="E20" s="8"/>
       <c r="F20" s="7">
         <f t="shared" si="1"/>
-        <v>2.1319444444444442</v>
+        <v>2.2986111111111107</v>
       </c>
       <c r="G20" s="7">
         <f>H2-F20+H2</f>
-        <v>3.2847222222222228</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+        <v>3.1180555555555562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -984,14 +998,14 @@
       <c r="E21" s="8"/>
       <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>2.1319444444444442</v>
+        <v>2.2986111111111107</v>
       </c>
       <c r="G21" s="7">
         <f>H2-F21+H2</f>
-        <v>3.2847222222222228</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+        <v>3.1180555555555562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -999,14 +1013,14 @@
       <c r="E22" s="8"/>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>2.1319444444444442</v>
+        <v>2.2986111111111107</v>
       </c>
       <c r="G22" s="7">
         <f>H2-F22+H2</f>
-        <v>3.2847222222222228</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+        <v>3.1180555555555562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1014,14 +1028,14 @@
       <c r="E23" s="8"/>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>2.1319444444444442</v>
+        <v>2.2986111111111107</v>
       </c>
       <c r="G23" s="7">
         <f>H2-F23+H2</f>
-        <v>3.2847222222222228</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+        <v>3.1180555555555562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D24" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1029,14 +1043,14 @@
       <c r="E24" s="8"/>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>2.1319444444444442</v>
+        <v>2.2986111111111107</v>
       </c>
       <c r="G24" s="7">
         <f>H2-F24+H2</f>
-        <v>3.2847222222222228</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+        <v>3.1180555555555562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1044,14 +1058,14 @@
       <c r="E25" s="8"/>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>2.1319444444444442</v>
+        <v>2.2986111111111107</v>
       </c>
       <c r="G25" s="7">
         <f>H2-F25+H2</f>
-        <v>3.2847222222222228</v>
-      </c>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+        <v>3.1180555555555562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1059,14 +1073,14 @@
       <c r="E26" s="8"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>2.1319444444444442</v>
+        <v>2.2986111111111107</v>
       </c>
       <c r="G26" s="7">
         <f>H2-F26+H2</f>
-        <v>3.2847222222222228</v>
-      </c>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+        <v>3.1180555555555562</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1075,35 +1089,35 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D30" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D32" s="6">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DD822A-2EF0-4568-BF84-E53E81B93996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8CA68B-706F-4F0A-9CF0-4C269D1F40EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -98,10 +98,10 @@
     <t>Verrataan puoleen, koska excel ei osaa maaritella isoja tunteja</t>
   </si>
   <si>
-    <t>Unity UI page view swap + character funktioita ja kehityksprosessin uudelleenajattelua Unity kokemuksien perusteella</t>
-  </si>
-  <si>
-    <t>XML ja character (UI baseline valmis)</t>
+    <t>Unity UI page view swap + character funktioita ja kehitysprosessin uudelleenajattelua Unity kokemuksien perusteella</t>
+  </si>
+  <si>
+    <t>XML parset luotu ja  looped, manuaalisen sijaan (ensin KAIKKI manuaaliset rakennettu, jotka myohemmin loopattu, johon meni turhaan aikaa) + comments (harkintaa progression dictionarien looppaamisesta)</t>
   </si>
 </sst>
 </file>
@@ -919,7 +919,7 @@
         <v>3.2847222222222228</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44083</v>
       </c>
@@ -933,7 +933,7 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="7">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8CA68B-706F-4F0A-9CF0-4C269D1F40EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD275888-869C-48E3-9651-C6E89789CC80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,18 +946,27 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.20833333333333326</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="7">
         <f t="shared" si="1"/>
-        <v>2.2986111111111107</v>
+        <v>2.5069444444444438</v>
       </c>
       <c r="G18" s="7">
         <f>H2-F18+H2</f>
-        <v>3.1180555555555562</v>
+        <v>2.9097222222222232</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -968,11 +977,11 @@
       <c r="E19" s="8"/>
       <c r="F19" s="7">
         <f t="shared" si="1"/>
-        <v>2.2986111111111107</v>
+        <v>2.5069444444444438</v>
       </c>
       <c r="G19" s="7">
         <f>H2-F19+H2</f>
-        <v>3.1180555555555562</v>
+        <v>2.9097222222222232</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -983,11 +992,11 @@
       <c r="E20" s="8"/>
       <c r="F20" s="7">
         <f t="shared" si="1"/>
-        <v>2.2986111111111107</v>
+        <v>2.5069444444444438</v>
       </c>
       <c r="G20" s="7">
         <f>H2-F20+H2</f>
-        <v>3.1180555555555562</v>
+        <v>2.9097222222222232</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -998,11 +1007,11 @@
       <c r="E21" s="8"/>
       <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>2.2986111111111107</v>
+        <v>2.5069444444444438</v>
       </c>
       <c r="G21" s="7">
         <f>H2-F21+H2</f>
-        <v>3.1180555555555562</v>
+        <v>2.9097222222222232</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1013,11 +1022,11 @@
       <c r="E22" s="8"/>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>2.2986111111111107</v>
+        <v>2.5069444444444438</v>
       </c>
       <c r="G22" s="7">
         <f>H2-F22+H2</f>
-        <v>3.1180555555555562</v>
+        <v>2.9097222222222232</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1028,11 +1037,11 @@
       <c r="E23" s="8"/>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>2.2986111111111107</v>
+        <v>2.5069444444444438</v>
       </c>
       <c r="G23" s="7">
         <f>H2-F23+H2</f>
-        <v>3.1180555555555562</v>
+        <v>2.9097222222222232</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1043,11 +1052,11 @@
       <c r="E24" s="8"/>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>2.2986111111111107</v>
+        <v>2.5069444444444438</v>
       </c>
       <c r="G24" s="7">
         <f>H2-F24+H2</f>
-        <v>3.1180555555555562</v>
+        <v>2.9097222222222232</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1058,11 +1067,11 @@
       <c r="E25" s="8"/>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>2.2986111111111107</v>
+        <v>2.5069444444444438</v>
       </c>
       <c r="G25" s="7">
         <f>H2-F25+H2</f>
-        <v>3.1180555555555562</v>
+        <v>2.9097222222222232</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1073,11 +1082,11 @@
       <c r="E26" s="8"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>2.2986111111111107</v>
+        <v>2.5069444444444438</v>
       </c>
       <c r="G26" s="7">
         <f>H2-F26+H2</f>
-        <v>3.1180555555555562</v>
+        <v>2.9097222222222232</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD275888-869C-48E3-9651-C6E89789CC80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A5CC67-7AF3-43BA-BE02-DE20F5B2AEEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>XML parset luotu ja  looped, manuaalisen sijaan (ensin KAIKKI manuaaliset rakennettu, jotka myohemmin loopattu, johon meni turhaan aikaa) + comments (harkintaa progression dictionarien looppaamisesta)</t>
+  </si>
+  <si>
+    <t>XMLParse korjattu (dictionarit valmiina). Character creation rakennettu internal ja tiedot characterista UI, staattisen tiedon sijaan</t>
   </si>
 </sst>
 </file>
@@ -482,8 +485,8 @@
   <sheetPr codeName="Taul1"/>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,7 +948,7 @@
         <v>3.1180555555555562</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44084</v>
       </c>
@@ -959,7 +962,9 @@
         <f t="shared" si="0"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="F18" s="7">
         <f t="shared" si="1"/>
         <v>2.5069444444444438</v>

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A5CC67-7AF3-43BA-BE02-DE20F5B2AEEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410C4726-92DB-4682-83EB-FB4E7EFCFC12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>XMLParse korjattu (dictionarit valmiina). Character creation rakennettu internal ja tiedot characterista UI, staattisen tiedon sijaan</t>
+  </si>
+  <si>
+    <t>Skill Increase + Character Advancement</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,18 +978,29 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="F19" s="7">
         <f t="shared" si="1"/>
-        <v>2.5069444444444438</v>
+        <v>2.5902777777777772</v>
       </c>
       <c r="G19" s="7">
         <f>H2-F19+H2</f>
-        <v>2.9097222222222232</v>
+        <v>2.8263888888888897</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -997,11 +1011,11 @@
       <c r="E20" s="8"/>
       <c r="F20" s="7">
         <f t="shared" si="1"/>
-        <v>2.5069444444444438</v>
+        <v>2.5902777777777772</v>
       </c>
       <c r="G20" s="7">
         <f>H2-F20+H2</f>
-        <v>2.9097222222222232</v>
+        <v>2.8263888888888897</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1012,11 +1026,11 @@
       <c r="E21" s="8"/>
       <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>2.5069444444444438</v>
+        <v>2.5902777777777772</v>
       </c>
       <c r="G21" s="7">
         <f>H2-F21+H2</f>
-        <v>2.9097222222222232</v>
+        <v>2.8263888888888897</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1027,11 +1041,11 @@
       <c r="E22" s="8"/>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>2.5069444444444438</v>
+        <v>2.5902777777777772</v>
       </c>
       <c r="G22" s="7">
         <f>H2-F22+H2</f>
-        <v>2.9097222222222232</v>
+        <v>2.8263888888888897</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1042,11 +1056,11 @@
       <c r="E23" s="8"/>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>2.5069444444444438</v>
+        <v>2.5902777777777772</v>
       </c>
       <c r="G23" s="7">
         <f>H2-F23+H2</f>
-        <v>2.9097222222222232</v>
+        <v>2.8263888888888897</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1057,11 +1071,11 @@
       <c r="E24" s="8"/>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>2.5069444444444438</v>
+        <v>2.5902777777777772</v>
       </c>
       <c r="G24" s="7">
         <f>H2-F24+H2</f>
-        <v>2.9097222222222232</v>
+        <v>2.8263888888888897</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1072,11 +1086,11 @@
       <c r="E25" s="8"/>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>2.5069444444444438</v>
+        <v>2.5902777777777772</v>
       </c>
       <c r="G25" s="7">
         <f>H2-F25+H2</f>
-        <v>2.9097222222222232</v>
+        <v>2.8263888888888897</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1087,11 +1101,11 @@
       <c r="E26" s="8"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>2.5069444444444438</v>
+        <v>2.5902777777777772</v>
       </c>
       <c r="G26" s="7">
         <f>H2-F26+H2</f>
-        <v>2.9097222222222232</v>
+        <v>2.8263888888888897</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410C4726-92DB-4682-83EB-FB4E7EFCFC12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170B5511-83D0-4BFB-A470-4746DF8FDD55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Skill Increase + Character Advancement</t>
+  </si>
+  <si>
+    <t>XML + Add Advancement</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,18 +1007,29 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="8"/>
+        <v>0.125</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="F20" s="7">
         <f t="shared" si="1"/>
-        <v>2.5902777777777772</v>
+        <v>2.7152777777777772</v>
       </c>
       <c r="G20" s="7">
         <f>H2-F20+H2</f>
-        <v>2.8263888888888897</v>
+        <v>2.7013888888888897</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1026,11 +1040,11 @@
       <c r="E21" s="8"/>
       <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>2.5902777777777772</v>
+        <v>2.7152777777777772</v>
       </c>
       <c r="G21" s="7">
         <f>H2-F21+H2</f>
-        <v>2.8263888888888897</v>
+        <v>2.7013888888888897</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1041,11 +1055,11 @@
       <c r="E22" s="8"/>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>2.5902777777777772</v>
+        <v>2.7152777777777772</v>
       </c>
       <c r="G22" s="7">
         <f>H2-F22+H2</f>
-        <v>2.8263888888888897</v>
+        <v>2.7013888888888897</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1056,11 +1070,11 @@
       <c r="E23" s="8"/>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>2.5902777777777772</v>
+        <v>2.7152777777777772</v>
       </c>
       <c r="G23" s="7">
         <f>H2-F23+H2</f>
-        <v>2.8263888888888897</v>
+        <v>2.7013888888888897</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1071,11 +1085,11 @@
       <c r="E24" s="8"/>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>2.5902777777777772</v>
+        <v>2.7152777777777772</v>
       </c>
       <c r="G24" s="7">
         <f>H2-F24+H2</f>
-        <v>2.8263888888888897</v>
+        <v>2.7013888888888897</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1086,11 +1100,11 @@
       <c r="E25" s="8"/>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>2.5902777777777772</v>
+        <v>2.7152777777777772</v>
       </c>
       <c r="G25" s="7">
         <f>H2-F25+H2</f>
-        <v>2.8263888888888897</v>
+        <v>2.7013888888888897</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1101,11 +1115,11 @@
       <c r="E26" s="8"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>2.5902777777777772</v>
+        <v>2.7152777777777772</v>
       </c>
       <c r="G26" s="7">
         <f>H2-F26+H2</f>
-        <v>2.8263888888888897</v>
+        <v>2.7013888888888897</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170B5511-83D0-4BFB-A470-4746DF8FDD55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8AC319-95DA-4164-B140-56DE500AC62D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -110,7 +110,7 @@
     <t>Skill Increase + Character Advancement</t>
   </si>
   <si>
-    <t>XML + Add Advancement</t>
+    <t>XML + Add Advancement, Feats being added with partial filter</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1006,7 @@
         <v>2.8263888888888897</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44085</v>
       </c>
@@ -1014,22 +1014,22 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="C20" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.98958333333333337</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="E20" s="8" t="s">
+        <v>0.19791666666666674</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="1"/>
-        <v>2.7152777777777772</v>
+        <v>2.7881944444444438</v>
       </c>
       <c r="G20" s="7">
         <f>H2-F20+H2</f>
-        <v>2.7013888888888897</v>
+        <v>2.6284722222222232</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1040,11 +1040,11 @@
       <c r="E21" s="8"/>
       <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>2.7152777777777772</v>
+        <v>2.7881944444444438</v>
       </c>
       <c r="G21" s="7">
         <f>H2-F21+H2</f>
-        <v>2.7013888888888897</v>
+        <v>2.6284722222222232</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1055,11 +1055,11 @@
       <c r="E22" s="8"/>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>2.7152777777777772</v>
+        <v>2.7881944444444438</v>
       </c>
       <c r="G22" s="7">
         <f>H2-F22+H2</f>
-        <v>2.7013888888888897</v>
+        <v>2.6284722222222232</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1070,11 +1070,11 @@
       <c r="E23" s="8"/>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>2.7152777777777772</v>
+        <v>2.7881944444444438</v>
       </c>
       <c r="G23" s="7">
         <f>H2-F23+H2</f>
-        <v>2.7013888888888897</v>
+        <v>2.6284722222222232</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1085,11 +1085,11 @@
       <c r="E24" s="8"/>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>2.7152777777777772</v>
+        <v>2.7881944444444438</v>
       </c>
       <c r="G24" s="7">
         <f>H2-F24+H2</f>
-        <v>2.7013888888888897</v>
+        <v>2.6284722222222232</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,11 +1100,11 @@
       <c r="E25" s="8"/>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>2.7152777777777772</v>
+        <v>2.7881944444444438</v>
       </c>
       <c r="G25" s="7">
         <f>H2-F25+H2</f>
-        <v>2.7013888888888897</v>
+        <v>2.6284722222222232</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1115,11 +1115,11 @@
       <c r="E26" s="8"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>2.7152777777777772</v>
+        <v>2.7881944444444438</v>
       </c>
       <c r="G26" s="7">
         <f>H2-F26+H2</f>
-        <v>2.7013888888888897</v>
+        <v>2.6284722222222232</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8AC319-95DA-4164-B140-56DE500AC62D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170B5511-83D0-4BFB-A470-4746DF8FDD55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -110,7 +110,7 @@
     <t>Skill Increase + Character Advancement</t>
   </si>
   <si>
-    <t>XML + Add Advancement, Feats being added with partial filter</t>
+    <t>XML + Add Advancement</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1006,7 @@
         <v>2.8263888888888897</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44085</v>
       </c>
@@ -1014,22 +1014,22 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="C20" s="2">
-        <v>0.98958333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
-        <v>0.19791666666666674</v>
-      </c>
-      <c r="E20" s="9" t="s">
+        <v>0.125</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="1"/>
-        <v>2.7881944444444438</v>
+        <v>2.7152777777777772</v>
       </c>
       <c r="G20" s="7">
         <f>H2-F20+H2</f>
-        <v>2.6284722222222232</v>
+        <v>2.7013888888888897</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1040,11 +1040,11 @@
       <c r="E21" s="8"/>
       <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>2.7881944444444438</v>
+        <v>2.7152777777777772</v>
       </c>
       <c r="G21" s="7">
         <f>H2-F21+H2</f>
-        <v>2.6284722222222232</v>
+        <v>2.7013888888888897</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1055,11 +1055,11 @@
       <c r="E22" s="8"/>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>2.7881944444444438</v>
+        <v>2.7152777777777772</v>
       </c>
       <c r="G22" s="7">
         <f>H2-F22+H2</f>
-        <v>2.6284722222222232</v>
+        <v>2.7013888888888897</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1070,11 +1070,11 @@
       <c r="E23" s="8"/>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>2.7881944444444438</v>
+        <v>2.7152777777777772</v>
       </c>
       <c r="G23" s="7">
         <f>H2-F23+H2</f>
-        <v>2.6284722222222232</v>
+        <v>2.7013888888888897</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1085,11 +1085,11 @@
       <c r="E24" s="8"/>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>2.7881944444444438</v>
+        <v>2.7152777777777772</v>
       </c>
       <c r="G24" s="7">
         <f>H2-F24+H2</f>
-        <v>2.6284722222222232</v>
+        <v>2.7013888888888897</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,11 +1100,11 @@
       <c r="E25" s="8"/>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>2.7881944444444438</v>
+        <v>2.7152777777777772</v>
       </c>
       <c r="G25" s="7">
         <f>H2-F25+H2</f>
-        <v>2.6284722222222232</v>
+        <v>2.7013888888888897</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1115,11 +1115,11 @@
       <c r="E26" s="8"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>2.7881944444444438</v>
+        <v>2.7152777777777772</v>
       </c>
       <c r="G26" s="7">
         <f>H2-F26+H2</f>
-        <v>2.6284722222222232</v>
+        <v>2.7013888888888897</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170B5511-83D0-4BFB-A470-4746DF8FDD55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDC4E06-B0CE-43E2-A21B-AF140B61BFC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -110,7 +110,7 @@
     <t>Skill Increase + Character Advancement</t>
   </si>
   <si>
-    <t>XML + Add Advancement</t>
+    <t>XML + Add Advancement (ja tunti lisaa joka ei ole listattu githubin kanssa tappeluun)</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1006,7 @@
         <v>2.8263888888888897</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44085</v>
       </c>
@@ -1014,22 +1014,22 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="C20" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.98958333333333337</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="E20" s="8" t="s">
+        <v>0.19791666666666674</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="1"/>
-        <v>2.7152777777777772</v>
+        <v>2.7881944444444438</v>
       </c>
       <c r="G20" s="7">
         <f>H2-F20+H2</f>
-        <v>2.7013888888888897</v>
+        <v>2.6284722222222232</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1040,11 +1040,11 @@
       <c r="E21" s="8"/>
       <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>2.7152777777777772</v>
+        <v>2.7881944444444438</v>
       </c>
       <c r="G21" s="7">
         <f>H2-F21+H2</f>
-        <v>2.7013888888888897</v>
+        <v>2.6284722222222232</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1055,11 +1055,11 @@
       <c r="E22" s="8"/>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>2.7152777777777772</v>
+        <v>2.7881944444444438</v>
       </c>
       <c r="G22" s="7">
         <f>H2-F22+H2</f>
-        <v>2.7013888888888897</v>
+        <v>2.6284722222222232</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1070,11 +1070,11 @@
       <c r="E23" s="8"/>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>2.7152777777777772</v>
+        <v>2.7881944444444438</v>
       </c>
       <c r="G23" s="7">
         <f>H2-F23+H2</f>
-        <v>2.7013888888888897</v>
+        <v>2.6284722222222232</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1085,11 +1085,11 @@
       <c r="E24" s="8"/>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>2.7152777777777772</v>
+        <v>2.7881944444444438</v>
       </c>
       <c r="G24" s="7">
         <f>H2-F24+H2</f>
-        <v>2.7013888888888897</v>
+        <v>2.6284722222222232</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,11 +1100,11 @@
       <c r="E25" s="8"/>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>2.7152777777777772</v>
+        <v>2.7881944444444438</v>
       </c>
       <c r="G25" s="7">
         <f>H2-F25+H2</f>
-        <v>2.7013888888888897</v>
+        <v>2.6284722222222232</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1115,11 +1115,11 @@
       <c r="E26" s="8"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>2.7152777777777772</v>
+        <v>2.7881944444444438</v>
       </c>
       <c r="G26" s="7">
         <f>H2-F26+H2</f>
-        <v>2.7013888888888897</v>
+        <v>2.6284722222222232</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDC4E06-B0CE-43E2-A21B-AF140B61BFC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E582C9E-FEF7-46C8-8F1A-93D42BB08F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>XML + Add Advancement (ja tunti lisaa joka ei ole listattu githubin kanssa tappeluun)</t>
+  </si>
+  <si>
+    <t>check skills + check feats + XML &amp;&amp; || coding</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,18 +1036,29 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.875</v>
+      </c>
       <c r="D21" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="8"/>
+        <v>0.21180555555555558</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>2.7881944444444438</v>
+        <v>2.9999999999999991</v>
       </c>
       <c r="G21" s="7">
         <f>H2-F21+H2</f>
-        <v>2.6284722222222232</v>
+        <v>2.4166666666666679</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1055,11 +1069,11 @@
       <c r="E22" s="8"/>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>2.7881944444444438</v>
+        <v>2.9999999999999991</v>
       </c>
       <c r="G22" s="7">
         <f>H2-F22+H2</f>
-        <v>2.6284722222222232</v>
+        <v>2.4166666666666679</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1070,11 +1084,11 @@
       <c r="E23" s="8"/>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>2.7881944444444438</v>
+        <v>2.9999999999999991</v>
       </c>
       <c r="G23" s="7">
         <f>H2-F23+H2</f>
-        <v>2.6284722222222232</v>
+        <v>2.4166666666666679</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1085,11 +1099,11 @@
       <c r="E24" s="8"/>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>2.7881944444444438</v>
+        <v>2.9999999999999991</v>
       </c>
       <c r="G24" s="7">
         <f>H2-F24+H2</f>
-        <v>2.6284722222222232</v>
+        <v>2.4166666666666679</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,11 +1114,11 @@
       <c r="E25" s="8"/>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>2.7881944444444438</v>
+        <v>2.9999999999999991</v>
       </c>
       <c r="G25" s="7">
         <f>H2-F25+H2</f>
-        <v>2.6284722222222232</v>
+        <v>2.4166666666666679</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1115,11 +1129,11 @@
       <c r="E26" s="8"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>2.7881944444444438</v>
+        <v>2.9999999999999991</v>
       </c>
       <c r="G26" s="7">
         <f>H2-F26+H2</f>
-        <v>2.6284722222222232</v>
+        <v>2.4166666666666679</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E582C9E-FEF7-46C8-8F1A-93D42BB08F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC64CF0-1C41-472E-9207-FDFBF294A967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC64CF0-1C41-472E-9207-FDFBF294A967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820E0CBD-420C-4DCE-A0E2-DEDF3CC75BB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,18 +1062,27 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.875</v>
+      </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.20833333333333337</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>2.9999999999999991</v>
+        <v>3.2083333333333326</v>
       </c>
       <c r="G22" s="7">
         <f>H2-F22+H2</f>
-        <v>2.4166666666666679</v>
+        <v>2.2083333333333344</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1084,11 +1093,11 @@
       <c r="E23" s="8"/>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>2.9999999999999991</v>
+        <v>3.2083333333333326</v>
       </c>
       <c r="G23" s="7">
         <f>H2-F23+H2</f>
-        <v>2.4166666666666679</v>
+        <v>2.2083333333333344</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1099,11 +1108,11 @@
       <c r="E24" s="8"/>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>2.9999999999999991</v>
+        <v>3.2083333333333326</v>
       </c>
       <c r="G24" s="7">
         <f>H2-F24+H2</f>
-        <v>2.4166666666666679</v>
+        <v>2.2083333333333344</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1114,11 +1123,11 @@
       <c r="E25" s="8"/>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>2.9999999999999991</v>
+        <v>3.2083333333333326</v>
       </c>
       <c r="G25" s="7">
         <f>H2-F25+H2</f>
-        <v>2.4166666666666679</v>
+        <v>2.2083333333333344</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1129,11 +1138,11 @@
       <c r="E26" s="8"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>2.9999999999999991</v>
+        <v>3.2083333333333326</v>
       </c>
       <c r="G26" s="7">
         <f>H2-F26+H2</f>
-        <v>2.4166666666666679</v>
+        <v>2.2083333333333344</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820E0CBD-420C-4DCE-A0E2-DEDF3CC75BB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022B563A-AC8C-49EA-89D6-A05E4725F238}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -1069,20 +1069,20 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="2">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
-        <v>0.20833333333333337</v>
+        <v>0.25</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>3.2083333333333326</v>
+        <v>3.2499999999999991</v>
       </c>
       <c r="G22" s="7">
         <f>H2-F22+H2</f>
-        <v>2.2083333333333344</v>
+        <v>2.1666666666666679</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1093,11 +1093,11 @@
       <c r="E23" s="8"/>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>3.2083333333333326</v>
+        <v>3.2499999999999991</v>
       </c>
       <c r="G23" s="7">
         <f>H2-F23+H2</f>
-        <v>2.2083333333333344</v>
+        <v>2.1666666666666679</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1108,11 +1108,11 @@
       <c r="E24" s="8"/>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>3.2083333333333326</v>
+        <v>3.2499999999999991</v>
       </c>
       <c r="G24" s="7">
         <f>H2-F24+H2</f>
-        <v>2.2083333333333344</v>
+        <v>2.1666666666666679</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1123,11 +1123,11 @@
       <c r="E25" s="8"/>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>3.2083333333333326</v>
+        <v>3.2499999999999991</v>
       </c>
       <c r="G25" s="7">
         <f>H2-F25+H2</f>
-        <v>2.2083333333333344</v>
+        <v>2.1666666666666679</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1138,11 +1138,11 @@
       <c r="E26" s="8"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>3.2083333333333326</v>
+        <v>3.2499999999999991</v>
       </c>
       <c r="G26" s="7">
         <f>H2-F26+H2</f>
-        <v>2.2083333333333344</v>
+        <v>2.1666666666666679</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022B563A-AC8C-49EA-89D6-A05E4725F238}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B5470C-012E-47C9-9E35-A1273CE6DD2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>check skills + check feats + XML &amp;&amp; || coding</t>
+  </si>
+  <si>
+    <t>requirements + bug fixes + documentation + XML</t>
   </si>
 </sst>
 </file>
@@ -494,8 +497,8 @@
   <sheetPr codeName="Taul1"/>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +638,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:F26" si="1">F4+D5</f>
+        <f t="shared" ref="F5:F38" si="1">F4+D5</f>
         <v>0.54166666666666663</v>
       </c>
       <c r="G5" s="7">
@@ -1075,7 +1078,9 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
         <v>3.2499999999999991</v>
@@ -1086,6 +1091,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1151,100 +1158,153 @@
         <v>0</v>
       </c>
       <c r="E27" s="8"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="F27" s="7">
+        <f t="shared" si="1"/>
+        <v>3.2499999999999991</v>
+      </c>
+      <c r="G27" s="7">
+        <f>H2-F27+H2</f>
+        <v>2.1666666666666679</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7">
+        <f t="shared" si="1"/>
+        <v>3.2499999999999991</v>
+      </c>
+      <c r="G28" s="7">
+        <f>H2-F28+H2</f>
+        <v>2.1666666666666679</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="7">
+        <f t="shared" si="1"/>
+        <v>3.2499999999999991</v>
+      </c>
+      <c r="G29" s="7">
+        <f>H2-F29+H2</f>
+        <v>2.1666666666666679</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D30" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="7">
+        <f t="shared" si="1"/>
+        <v>3.2499999999999991</v>
+      </c>
+      <c r="G30" s="7">
+        <f>H2-F30+H2</f>
+        <v>2.1666666666666679</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7">
+        <f t="shared" si="1"/>
+        <v>3.2499999999999991</v>
+      </c>
+      <c r="G31" s="7">
+        <f>H2-F31+H2</f>
+        <v>2.1666666666666679</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D32" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="7">
+        <f t="shared" si="1"/>
+        <v>3.2499999999999991</v>
+      </c>
+      <c r="G32" s="7">
+        <f>H2-F32+H2</f>
+        <v>2.1666666666666679</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D33" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="7">
+        <f t="shared" si="1"/>
+        <v>3.2499999999999991</v>
+      </c>
+      <c r="G33" s="7">
+        <f>H2-F33+H2</f>
+        <v>2.1666666666666679</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D34" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D35" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D36" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D38" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D39" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D40" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D41" s="4"/>
     </row>
   </sheetData>

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B5470C-012E-47C9-9E35-A1273CE6DD2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A399671-90FC-4712-91FD-58D74B00B4B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -497,8 +497,8 @@
   <sheetPr codeName="Taul1"/>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +638,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:F38" si="1">F4+D5</f>
+        <f t="shared" ref="F5:F33" si="1">F4+D5</f>
         <v>0.54166666666666663</v>
       </c>
       <c r="G5" s="7">
@@ -1091,20 +1091,27 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.88541666666666663</v>
+      </c>
       <c r="D23" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.20833333333333326</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>3.2499999999999991</v>
+        <v>3.4583333333333321</v>
       </c>
       <c r="G23" s="7">
         <f>H2-F23+H2</f>
-        <v>2.1666666666666679</v>
+        <v>1.9583333333333348</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1115,11 +1122,11 @@
       <c r="E24" s="8"/>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>3.2499999999999991</v>
+        <v>3.4583333333333321</v>
       </c>
       <c r="G24" s="7">
         <f>H2-F24+H2</f>
-        <v>2.1666666666666679</v>
+        <v>1.9583333333333348</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1130,11 +1137,11 @@
       <c r="E25" s="8"/>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>3.2499999999999991</v>
+        <v>3.4583333333333321</v>
       </c>
       <c r="G25" s="7">
         <f>H2-F25+H2</f>
-        <v>2.1666666666666679</v>
+        <v>1.9583333333333348</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1145,11 +1152,11 @@
       <c r="E26" s="8"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>3.2499999999999991</v>
+        <v>3.4583333333333321</v>
       </c>
       <c r="G26" s="7">
         <f>H2-F26+H2</f>
-        <v>2.1666666666666679</v>
+        <v>1.9583333333333348</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1160,11 +1167,11 @@
       <c r="E27" s="8"/>
       <c r="F27" s="7">
         <f t="shared" si="1"/>
-        <v>3.2499999999999991</v>
+        <v>3.4583333333333321</v>
       </c>
       <c r="G27" s="7">
         <f>H2-F27+H2</f>
-        <v>2.1666666666666679</v>
+        <v>1.9583333333333348</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1174,11 +1181,11 @@
       </c>
       <c r="F28" s="7">
         <f t="shared" si="1"/>
-        <v>3.2499999999999991</v>
+        <v>3.4583333333333321</v>
       </c>
       <c r="G28" s="7">
         <f>H2-F28+H2</f>
-        <v>2.1666666666666679</v>
+        <v>1.9583333333333348</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1188,11 +1195,11 @@
       </c>
       <c r="F29" s="7">
         <f t="shared" si="1"/>
-        <v>3.2499999999999991</v>
+        <v>3.4583333333333321</v>
       </c>
       <c r="G29" s="7">
         <f>H2-F29+H2</f>
-        <v>2.1666666666666679</v>
+        <v>1.9583333333333348</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1202,11 +1209,11 @@
       </c>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>3.2499999999999991</v>
+        <v>3.4583333333333321</v>
       </c>
       <c r="G30" s="7">
         <f>H2-F30+H2</f>
-        <v>2.1666666666666679</v>
+        <v>1.9583333333333348</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1216,11 +1223,11 @@
       </c>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>3.2499999999999991</v>
+        <v>3.4583333333333321</v>
       </c>
       <c r="G31" s="7">
         <f>H2-F31+H2</f>
-        <v>2.1666666666666679</v>
+        <v>1.9583333333333348</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1230,11 +1237,11 @@
       </c>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>3.2499999999999991</v>
+        <v>3.4583333333333321</v>
       </c>
       <c r="G32" s="7">
         <f>H2-F32+H2</f>
-        <v>2.1666666666666679</v>
+        <v>1.9583333333333348</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
@@ -1244,11 +1251,11 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>3.2499999999999991</v>
+        <v>3.4583333333333321</v>
       </c>
       <c r="G33" s="7">
         <f>H2-F33+H2</f>
-        <v>2.1666666666666679</v>
+        <v>1.9583333333333348</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A399671-90FC-4712-91FD-58D74B00B4B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACCDA94-F582-4A21-BDD8-43C029309397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,20 +1098,20 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="C23" s="2">
-        <v>0.88541666666666663</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="0"/>
-        <v>0.20833333333333326</v>
+        <v>0.21875</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>3.4583333333333321</v>
+        <v>3.4687499999999991</v>
       </c>
       <c r="G23" s="7">
         <f>H2-F23+H2</f>
-        <v>1.9583333333333348</v>
+        <v>1.9479166666666679</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1122,11 +1122,11 @@
       <c r="E24" s="8"/>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>3.4583333333333321</v>
+        <v>3.4687499999999991</v>
       </c>
       <c r="G24" s="7">
         <f>H2-F24+H2</f>
-        <v>1.9583333333333348</v>
+        <v>1.9479166666666679</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1137,11 +1137,11 @@
       <c r="E25" s="8"/>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>3.4583333333333321</v>
+        <v>3.4687499999999991</v>
       </c>
       <c r="G25" s="7">
         <f>H2-F25+H2</f>
-        <v>1.9583333333333348</v>
+        <v>1.9479166666666679</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1152,11 +1152,11 @@
       <c r="E26" s="8"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>3.4583333333333321</v>
+        <v>3.4687499999999991</v>
       </c>
       <c r="G26" s="7">
         <f>H2-F26+H2</f>
-        <v>1.9583333333333348</v>
+        <v>1.9479166666666679</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1167,11 +1167,11 @@
       <c r="E27" s="8"/>
       <c r="F27" s="7">
         <f t="shared" si="1"/>
-        <v>3.4583333333333321</v>
+        <v>3.4687499999999991</v>
       </c>
       <c r="G27" s="7">
         <f>H2-F27+H2</f>
-        <v>1.9583333333333348</v>
+        <v>1.9479166666666679</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1181,11 +1181,11 @@
       </c>
       <c r="F28" s="7">
         <f t="shared" si="1"/>
-        <v>3.4583333333333321</v>
+        <v>3.4687499999999991</v>
       </c>
       <c r="G28" s="7">
         <f>H2-F28+H2</f>
-        <v>1.9583333333333348</v>
+        <v>1.9479166666666679</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1195,11 +1195,11 @@
       </c>
       <c r="F29" s="7">
         <f t="shared" si="1"/>
-        <v>3.4583333333333321</v>
+        <v>3.4687499999999991</v>
       </c>
       <c r="G29" s="7">
         <f>H2-F29+H2</f>
-        <v>1.9583333333333348</v>
+        <v>1.9479166666666679</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1209,11 +1209,11 @@
       </c>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>3.4583333333333321</v>
+        <v>3.4687499999999991</v>
       </c>
       <c r="G30" s="7">
         <f>H2-F30+H2</f>
-        <v>1.9583333333333348</v>
+        <v>1.9479166666666679</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1223,11 +1223,11 @@
       </c>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>3.4583333333333321</v>
+        <v>3.4687499999999991</v>
       </c>
       <c r="G31" s="7">
         <f>H2-F31+H2</f>
-        <v>1.9583333333333348</v>
+        <v>1.9479166666666679</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1237,11 +1237,11 @@
       </c>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>3.4583333333333321</v>
+        <v>3.4687499999999991</v>
       </c>
       <c r="G32" s="7">
         <f>H2-F32+H2</f>
-        <v>1.9583333333333348</v>
+        <v>1.9479166666666679</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
@@ -1251,11 +1251,11 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>3.4583333333333321</v>
+        <v>3.4687499999999991</v>
       </c>
       <c r="G33" s="7">
         <f>H2-F33+H2</f>
-        <v>1.9583333333333348</v>
+        <v>1.9479166666666679</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACCDA94-F582-4A21-BDD8-43C029309397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADA85DB-0AFE-4571-91AC-747E4D63BD48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -497,8 +497,8 @@
   <sheetPr codeName="Taul1"/>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,18 +1115,27 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="D24" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.20833333333333337</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>3.4687499999999991</v>
+        <v>3.6770833333333326</v>
       </c>
       <c r="G24" s="7">
         <f>H2-F24+H2</f>
-        <v>1.9479166666666679</v>
+        <v>1.7395833333333344</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1137,11 +1146,11 @@
       <c r="E25" s="8"/>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>3.4687499999999991</v>
+        <v>3.6770833333333326</v>
       </c>
       <c r="G25" s="7">
         <f>H2-F25+H2</f>
-        <v>1.9479166666666679</v>
+        <v>1.7395833333333344</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1152,11 +1161,11 @@
       <c r="E26" s="8"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>3.4687499999999991</v>
+        <v>3.6770833333333326</v>
       </c>
       <c r="G26" s="7">
         <f>H2-F26+H2</f>
-        <v>1.9479166666666679</v>
+        <v>1.7395833333333344</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1167,11 +1176,11 @@
       <c r="E27" s="8"/>
       <c r="F27" s="7">
         <f t="shared" si="1"/>
-        <v>3.4687499999999991</v>
+        <v>3.6770833333333326</v>
       </c>
       <c r="G27" s="7">
         <f>H2-F27+H2</f>
-        <v>1.9479166666666679</v>
+        <v>1.7395833333333344</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1181,11 +1190,11 @@
       </c>
       <c r="F28" s="7">
         <f t="shared" si="1"/>
-        <v>3.4687499999999991</v>
+        <v>3.6770833333333326</v>
       </c>
       <c r="G28" s="7">
         <f>H2-F28+H2</f>
-        <v>1.9479166666666679</v>
+        <v>1.7395833333333344</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1195,11 +1204,11 @@
       </c>
       <c r="F29" s="7">
         <f t="shared" si="1"/>
-        <v>3.4687499999999991</v>
+        <v>3.6770833333333326</v>
       </c>
       <c r="G29" s="7">
         <f>H2-F29+H2</f>
-        <v>1.9479166666666679</v>
+        <v>1.7395833333333344</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1209,11 +1218,11 @@
       </c>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>3.4687499999999991</v>
+        <v>3.6770833333333326</v>
       </c>
       <c r="G30" s="7">
         <f>H2-F30+H2</f>
-        <v>1.9479166666666679</v>
+        <v>1.7395833333333344</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1223,11 +1232,11 @@
       </c>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>3.4687499999999991</v>
+        <v>3.6770833333333326</v>
       </c>
       <c r="G31" s="7">
         <f>H2-F31+H2</f>
-        <v>1.9479166666666679</v>
+        <v>1.7395833333333344</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1237,11 +1246,11 @@
       </c>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>3.4687499999999991</v>
+        <v>3.6770833333333326</v>
       </c>
       <c r="G32" s="7">
         <f>H2-F32+H2</f>
-        <v>1.9479166666666679</v>
+        <v>1.7395833333333344</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
@@ -1251,11 +1260,11 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>3.4687499999999991</v>
+        <v>3.6770833333333326</v>
       </c>
       <c r="G33" s="7">
         <f>H2-F33+H2</f>
-        <v>1.9479166666666679</v>
+        <v>1.7395833333333344</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADA85DB-0AFE-4571-91AC-747E4D63BD48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97BB0DD-EC00-452F-B05C-3C524CE56DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>requirements + bug fixes + documentation + XML</t>
+  </si>
+  <si>
+    <t>proficiencies + levelup (main stat weight)</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,18 +1142,29 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="D25" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="8"/>
+        <v>0.125</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>3.6770833333333326</v>
+        <v>3.8020833333333326</v>
       </c>
       <c r="G25" s="7">
         <f>H2-F25+H2</f>
-        <v>1.7395833333333344</v>
+        <v>1.6145833333333344</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1161,11 +1175,11 @@
       <c r="E26" s="8"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>3.6770833333333326</v>
+        <v>3.8020833333333326</v>
       </c>
       <c r="G26" s="7">
         <f>H2-F26+H2</f>
-        <v>1.7395833333333344</v>
+        <v>1.6145833333333344</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1176,11 +1190,11 @@
       <c r="E27" s="8"/>
       <c r="F27" s="7">
         <f t="shared" si="1"/>
-        <v>3.6770833333333326</v>
+        <v>3.8020833333333326</v>
       </c>
       <c r="G27" s="7">
         <f>H2-F27+H2</f>
-        <v>1.7395833333333344</v>
+        <v>1.6145833333333344</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1190,11 +1204,11 @@
       </c>
       <c r="F28" s="7">
         <f t="shared" si="1"/>
-        <v>3.6770833333333326</v>
+        <v>3.8020833333333326</v>
       </c>
       <c r="G28" s="7">
         <f>H2-F28+H2</f>
-        <v>1.7395833333333344</v>
+        <v>1.6145833333333344</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1204,11 +1218,11 @@
       </c>
       <c r="F29" s="7">
         <f t="shared" si="1"/>
-        <v>3.6770833333333326</v>
+        <v>3.8020833333333326</v>
       </c>
       <c r="G29" s="7">
         <f>H2-F29+H2</f>
-        <v>1.7395833333333344</v>
+        <v>1.6145833333333344</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1218,11 +1232,11 @@
       </c>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>3.6770833333333326</v>
+        <v>3.8020833333333326</v>
       </c>
       <c r="G30" s="7">
         <f>H2-F30+H2</f>
-        <v>1.7395833333333344</v>
+        <v>1.6145833333333344</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1232,11 +1246,11 @@
       </c>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>3.6770833333333326</v>
+        <v>3.8020833333333326</v>
       </c>
       <c r="G31" s="7">
         <f>H2-F31+H2</f>
-        <v>1.7395833333333344</v>
+        <v>1.6145833333333344</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1246,11 +1260,11 @@
       </c>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>3.6770833333333326</v>
+        <v>3.8020833333333326</v>
       </c>
       <c r="G32" s="7">
         <f>H2-F32+H2</f>
-        <v>1.7395833333333344</v>
+        <v>1.6145833333333344</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
@@ -1260,11 +1274,11 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>3.6770833333333326</v>
+        <v>3.8020833333333326</v>
       </c>
       <c r="G33" s="7">
         <f>H2-F33+H2</f>
-        <v>1.7395833333333344</v>
+        <v>1.6145833333333344</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97BB0DD-EC00-452F-B05C-3C524CE56DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2A6B5E-A9DD-4B75-A71B-2A3DF263640E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -119,7 +119,7 @@
     <t>requirements + bug fixes + documentation + XML</t>
   </si>
   <si>
-    <t>proficiencies + levelup (main stat weight)</t>
+    <t>proficiencies + levelup (main stat weight) + BUGFIX + suunnittelua(1h?)</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
   <sheetPr codeName="Taul1"/>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1141,7 +1141,7 @@
         <v>1.7395833333333344</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44090</v>
       </c>
@@ -1149,22 +1149,22 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C25" s="2">
-        <v>0.77083333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="E25" s="8" t="s">
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>3.8020833333333326</v>
+        <v>3.8854166666666661</v>
       </c>
       <c r="G25" s="7">
         <f>H2-F25+H2</f>
-        <v>1.6145833333333344</v>
+        <v>1.5312500000000009</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1175,11 +1175,11 @@
       <c r="E26" s="8"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>3.8020833333333326</v>
+        <v>3.8854166666666661</v>
       </c>
       <c r="G26" s="7">
         <f>H2-F26+H2</f>
-        <v>1.6145833333333344</v>
+        <v>1.5312500000000009</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1190,11 +1190,11 @@
       <c r="E27" s="8"/>
       <c r="F27" s="7">
         <f t="shared" si="1"/>
-        <v>3.8020833333333326</v>
+        <v>3.8854166666666661</v>
       </c>
       <c r="G27" s="7">
         <f>H2-F27+H2</f>
-        <v>1.6145833333333344</v>
+        <v>1.5312500000000009</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1204,11 +1204,11 @@
       </c>
       <c r="F28" s="7">
         <f t="shared" si="1"/>
-        <v>3.8020833333333326</v>
+        <v>3.8854166666666661</v>
       </c>
       <c r="G28" s="7">
         <f>H2-F28+H2</f>
-        <v>1.6145833333333344</v>
+        <v>1.5312500000000009</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1218,11 +1218,11 @@
       </c>
       <c r="F29" s="7">
         <f t="shared" si="1"/>
-        <v>3.8020833333333326</v>
+        <v>3.8854166666666661</v>
       </c>
       <c r="G29" s="7">
         <f>H2-F29+H2</f>
-        <v>1.6145833333333344</v>
+        <v>1.5312500000000009</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>3.8020833333333326</v>
+        <v>3.8854166666666661</v>
       </c>
       <c r="G30" s="7">
         <f>H2-F30+H2</f>
-        <v>1.6145833333333344</v>
+        <v>1.5312500000000009</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1246,11 +1246,11 @@
       </c>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>3.8020833333333326</v>
+        <v>3.8854166666666661</v>
       </c>
       <c r="G31" s="7">
         <f>H2-F31+H2</f>
-        <v>1.6145833333333344</v>
+        <v>1.5312500000000009</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1260,11 +1260,11 @@
       </c>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>3.8020833333333326</v>
+        <v>3.8854166666666661</v>
       </c>
       <c r="G32" s="7">
         <f>H2-F32+H2</f>
-        <v>1.6145833333333344</v>
+        <v>1.5312500000000009</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
@@ -1274,11 +1274,11 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>3.8020833333333326</v>
+        <v>3.8854166666666661</v>
       </c>
       <c r="G33" s="7">
         <f>H2-F33+H2</f>
-        <v>1.6145833333333344</v>
+        <v>1.5312500000000009</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2A6B5E-A9DD-4B75-A71B-2A3DF263640E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73874CBD-18D0-416B-8A55-45181B85E7FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>proficiencies + levelup (main stat weight) + BUGFIX + suunnittelua(1h?)</t>
+  </si>
+  <si>
+    <t>visual studio hajonnut - n. 3 tuntia korjaukseen</t>
+  </si>
+  <si>
+    <t>Bugfixes/Skill Increase/feature designs</t>
   </si>
 </sst>
 </file>
@@ -501,7 +507,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,11 +1174,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44091</v>
+      </c>
       <c r="D26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
         <v>3.8854166666666661</v>
@@ -1183,18 +1194,29 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44091</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D27" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="8"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="F27" s="7">
         <f t="shared" si="1"/>
-        <v>3.8854166666666661</v>
+        <v>4.052083333333333</v>
       </c>
       <c r="G27" s="7">
         <f>H2-F27+H2</f>
-        <v>1.5312500000000009</v>
+        <v>1.3645833333333339</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1204,11 +1226,11 @@
       </c>
       <c r="F28" s="7">
         <f t="shared" si="1"/>
-        <v>3.8854166666666661</v>
+        <v>4.052083333333333</v>
       </c>
       <c r="G28" s="7">
         <f>H2-F28+H2</f>
-        <v>1.5312500000000009</v>
+        <v>1.3645833333333339</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1218,11 +1240,11 @@
       </c>
       <c r="F29" s="7">
         <f t="shared" si="1"/>
-        <v>3.8854166666666661</v>
+        <v>4.052083333333333</v>
       </c>
       <c r="G29" s="7">
         <f>H2-F29+H2</f>
-        <v>1.5312500000000009</v>
+        <v>1.3645833333333339</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1232,11 +1254,11 @@
       </c>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>3.8854166666666661</v>
+        <v>4.052083333333333</v>
       </c>
       <c r="G30" s="7">
         <f>H2-F30+H2</f>
-        <v>1.5312500000000009</v>
+        <v>1.3645833333333339</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1246,11 +1268,11 @@
       </c>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>3.8854166666666661</v>
+        <v>4.052083333333333</v>
       </c>
       <c r="G31" s="7">
         <f>H2-F31+H2</f>
-        <v>1.5312500000000009</v>
+        <v>1.3645833333333339</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1260,11 +1282,11 @@
       </c>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>3.8854166666666661</v>
+        <v>4.052083333333333</v>
       </c>
       <c r="G32" s="7">
         <f>H2-F32+H2</f>
-        <v>1.5312500000000009</v>
+        <v>1.3645833333333339</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
@@ -1274,11 +1296,11 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>3.8854166666666661</v>
+        <v>4.052083333333333</v>
       </c>
       <c r="G33" s="7">
         <f>H2-F33+H2</f>
-        <v>1.5312500000000009</v>
+        <v>1.3645833333333339</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73874CBD-18D0-416B-8A55-45181B85E7FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29F7CD2-8B51-4316-BA52-F3AF72AC456D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,17 +1220,26 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D28" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="1"/>
-        <v>4.052083333333333</v>
+        <v>4.302083333333333</v>
       </c>
       <c r="G28" s="7">
         <f>H2-F28+H2</f>
-        <v>1.3645833333333339</v>
+        <v>1.1145833333333339</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1240,11 +1249,11 @@
       </c>
       <c r="F29" s="7">
         <f t="shared" si="1"/>
-        <v>4.052083333333333</v>
+        <v>4.302083333333333</v>
       </c>
       <c r="G29" s="7">
         <f>H2-F29+H2</f>
-        <v>1.3645833333333339</v>
+        <v>1.1145833333333339</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1254,11 +1263,11 @@
       </c>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>4.052083333333333</v>
+        <v>4.302083333333333</v>
       </c>
       <c r="G30" s="7">
         <f>H2-F30+H2</f>
-        <v>1.3645833333333339</v>
+        <v>1.1145833333333339</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1268,11 +1277,11 @@
       </c>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>4.052083333333333</v>
+        <v>4.302083333333333</v>
       </c>
       <c r="G31" s="7">
         <f>H2-F31+H2</f>
-        <v>1.3645833333333339</v>
+        <v>1.1145833333333339</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1282,11 +1291,11 @@
       </c>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>4.052083333333333</v>
+        <v>4.302083333333333</v>
       </c>
       <c r="G32" s="7">
         <f>H2-F32+H2</f>
-        <v>1.3645833333333339</v>
+        <v>1.1145833333333339</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
@@ -1296,11 +1305,11 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>4.052083333333333</v>
+        <v>4.302083333333333</v>
       </c>
       <c r="G33" s="7">
         <f>H2-F33+H2</f>
-        <v>1.3645833333333339</v>
+        <v>1.1145833333333339</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29F7CD2-8B51-4316-BA52-F3AF72AC456D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB09547-A7EF-4B38-8527-C205DDB4C6C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Bugfixes/Skill Increase/feature designs</t>
+  </si>
+  <si>
+    <t>Unity UI redesign + XML + scripts + 4 Free Boost + Initial Feats</t>
   </si>
 </sst>
 </file>
@@ -507,7 +510,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,7 +1222,7 @@
         <v>1.3645833333333339</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44092</v>
       </c>
@@ -1227,19 +1230,22 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C28" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.22916666666666663</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="1"/>
-        <v>4.302083333333333</v>
+        <v>4.28125</v>
       </c>
       <c r="G28" s="7">
         <f>H2-F28+H2</f>
-        <v>1.1145833333333339</v>
+        <v>1.135416666666667</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1249,11 +1255,11 @@
       </c>
       <c r="F29" s="7">
         <f t="shared" si="1"/>
-        <v>4.302083333333333</v>
+        <v>4.28125</v>
       </c>
       <c r="G29" s="7">
         <f>H2-F29+H2</f>
-        <v>1.1145833333333339</v>
+        <v>1.135416666666667</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1263,11 +1269,11 @@
       </c>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>4.302083333333333</v>
+        <v>4.28125</v>
       </c>
       <c r="G30" s="7">
         <f>H2-F30+H2</f>
-        <v>1.1145833333333339</v>
+        <v>1.135416666666667</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1277,11 +1283,11 @@
       </c>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>4.302083333333333</v>
+        <v>4.28125</v>
       </c>
       <c r="G31" s="7">
         <f>H2-F31+H2</f>
-        <v>1.1145833333333339</v>
+        <v>1.135416666666667</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1291,11 +1297,11 @@
       </c>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>4.302083333333333</v>
+        <v>4.28125</v>
       </c>
       <c r="G32" s="7">
         <f>H2-F32+H2</f>
-        <v>1.1145833333333339</v>
+        <v>1.135416666666667</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
@@ -1305,11 +1311,11 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>4.302083333333333</v>
+        <v>4.28125</v>
       </c>
       <c r="G33" s="7">
         <f>H2-F33+H2</f>
-        <v>1.1145833333333339</v>
+        <v>1.135416666666667</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB09547-A7EF-4B38-8527-C205DDB4C6C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10535FF-B164-4536-863B-7CACE84E4B0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,6 +1249,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44093</v>
+      </c>
       <c r="D29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10535FF-B164-4536-863B-7CACE84E4B0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC27603-ABA8-4DC9-818C-9BED8AC779FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="1395" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
+    <workbookView xWindow="34725" yWindow="2115" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,19 +1250,25 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>44093</v>
+        <v>44094</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.89583333333333337</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F29" s="7">
         <f t="shared" si="1"/>
-        <v>4.28125</v>
+        <v>4.53125</v>
       </c>
       <c r="G29" s="7">
         <f>H2-F29+H2</f>
-        <v>1.135416666666667</v>
+        <v>0.88541666666666696</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1272,11 +1278,11 @@
       </c>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>4.28125</v>
+        <v>4.53125</v>
       </c>
       <c r="G30" s="7">
         <f>H2-F30+H2</f>
-        <v>1.135416666666667</v>
+        <v>0.88541666666666696</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1286,11 +1292,11 @@
       </c>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>4.28125</v>
+        <v>4.53125</v>
       </c>
       <c r="G31" s="7">
         <f>H2-F31+H2</f>
-        <v>1.135416666666667</v>
+        <v>0.88541666666666696</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1300,11 +1306,11 @@
       </c>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>4.28125</v>
+        <v>4.53125</v>
       </c>
       <c r="G32" s="7">
         <f>H2-F32+H2</f>
-        <v>1.135416666666667</v>
+        <v>0.88541666666666696</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
@@ -1314,11 +1320,11 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>4.28125</v>
+        <v>4.53125</v>
       </c>
       <c r="G33" s="7">
         <f>H2-F33+H2</f>
-        <v>1.135416666666667</v>
+        <v>0.88541666666666696</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC27603-ABA8-4DC9-818C-9BED8AC779FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7D9F99-CE6D-41F4-AA71-641FB16FB7A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34725" yWindow="2115" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,19 +1256,19 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C29" s="2">
-        <v>0.89583333333333337</v>
+        <v>0.90625</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.26041666666666663</v>
       </c>
       <c r="F29" s="7">
         <f t="shared" si="1"/>
-        <v>4.53125</v>
+        <v>4.541666666666667</v>
       </c>
       <c r="G29" s="7">
         <f>H2-F29+H2</f>
-        <v>0.88541666666666696</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1278,11 +1278,11 @@
       </c>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>4.53125</v>
+        <v>4.541666666666667</v>
       </c>
       <c r="G30" s="7">
         <f>H2-F30+H2</f>
-        <v>0.88541666666666696</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1292,11 +1292,11 @@
       </c>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>4.53125</v>
+        <v>4.541666666666667</v>
       </c>
       <c r="G31" s="7">
         <f>H2-F31+H2</f>
-        <v>0.88541666666666696</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1306,11 +1306,11 @@
       </c>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>4.53125</v>
+        <v>4.541666666666667</v>
       </c>
       <c r="G32" s="7">
         <f>H2-F32+H2</f>
-        <v>0.88541666666666696</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
@@ -1320,11 +1320,11 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>4.53125</v>
+        <v>4.541666666666667</v>
       </c>
       <c r="G33" s="7">
         <f>H2-F33+H2</f>
-        <v>0.88541666666666696</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7D9F99-CE6D-41F4-AA71-641FB16FB7A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EAC764-254C-4B53-A5F3-080DDE3307D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34725" yWindow="2115" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
+    <workbookView xWindow="5220" yWindow="1140" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -509,8 +509,8 @@
   <sheetPr codeName="Taul1"/>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,17 +1272,26 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="D30" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>4.541666666666667</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="G30" s="7">
         <f>H2-F30+H2</f>
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1292,11 +1301,11 @@
       </c>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>4.541666666666667</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="G31" s="7">
         <f>H2-F31+H2</f>
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1306,11 +1315,11 @@
       </c>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>4.541666666666667</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="G32" s="7">
         <f>H2-F32+H2</f>
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
@@ -1320,11 +1329,11 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>4.541666666666667</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="G33" s="7">
         <f>H2-F33+H2</f>
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EAC764-254C-4B53-A5F3-080DDE3307D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA771738-AC73-429A-846A-26501EEC48DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="1140" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,19 +1279,19 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C30" s="2">
-        <v>0.89583333333333337</v>
+        <v>0.94791666666666663</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.30208333333333326</v>
       </c>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>4.791666666666667</v>
+        <v>4.84375</v>
       </c>
       <c r="G30" s="7">
         <f>H2-F30+H2</f>
-        <v>0.625</v>
+        <v>0.57291666666666696</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1301,11 +1301,11 @@
       </c>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>4.791666666666667</v>
+        <v>4.84375</v>
       </c>
       <c r="G31" s="7">
         <f>H2-F31+H2</f>
-        <v>0.625</v>
+        <v>0.57291666666666696</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1315,11 +1315,11 @@
       </c>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>4.791666666666667</v>
+        <v>4.84375</v>
       </c>
       <c r="G32" s="7">
         <f>H2-F32+H2</f>
-        <v>0.625</v>
+        <v>0.57291666666666696</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
@@ -1329,11 +1329,11 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>4.791666666666667</v>
+        <v>4.84375</v>
       </c>
       <c r="G33" s="7">
         <f>H2-F33+H2</f>
-        <v>0.625</v>
+        <v>0.57291666666666696</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA771738-AC73-429A-846A-26501EEC48DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFF1D87-7529-4A8D-B4B1-E8C8DE7825A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="1140" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Unity UI redesign + XML + scripts + 4 Free Boost + Initial Feats</t>
+  </si>
+  <si>
+    <t>Bugfixes + Frontpage + Randomgen</t>
   </si>
 </sst>
 </file>
@@ -510,7 +513,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,17 +1298,29 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D31" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>4.84375</v>
+        <v>5.09375</v>
       </c>
       <c r="G31" s="7">
         <f>H2-F31+H2</f>
-        <v>0.57291666666666696</v>
+        <v>0.32291666666666696</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1315,11 +1330,11 @@
       </c>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>4.84375</v>
+        <v>5.09375</v>
       </c>
       <c r="G32" s="7">
         <f>H2-F32+H2</f>
-        <v>0.57291666666666696</v>
+        <v>0.32291666666666696</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
@@ -1329,11 +1344,11 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>4.84375</v>
+        <v>5.09375</v>
       </c>
       <c r="G33" s="7">
         <f>H2-F33+H2</f>
-        <v>0.57291666666666696</v>
+        <v>0.32291666666666696</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFF1D87-7529-4A8D-B4B1-E8C8DE7825A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6E82BA-2A0B-47FB-9A1A-5906BE4975F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="1140" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,22 +1305,22 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C31" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.90625</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.23958333333333337</v>
       </c>
       <c r="E31" t="s">
         <v>32</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>5.09375</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="G31" s="7">
         <f>H2-F31+H2</f>
-        <v>0.32291666666666696</v>
+        <v>0.33333333333333393</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1330,11 +1330,11 @@
       </c>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>5.09375</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="G32" s="7">
         <f>H2-F32+H2</f>
-        <v>0.32291666666666696</v>
+        <v>0.33333333333333393</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
@@ -1344,11 +1344,11 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>5.09375</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="G33" s="7">
         <f>H2-F33+H2</f>
-        <v>0.32291666666666696</v>
+        <v>0.33333333333333393</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6E82BA-2A0B-47FB-9A1A-5906BE4975F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5B614C-8639-4689-BEF0-F8746A3CAD3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="1140" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,17 +1324,26 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D32" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.27083333333333326</v>
       </c>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>5.083333333333333</v>
+        <v>5.3541666666666661</v>
       </c>
       <c r="G32" s="7">
         <f>H2-F32+H2</f>
-        <v>0.33333333333333393</v>
+        <v>6.2500000000000888E-2</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
@@ -1344,11 +1353,11 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>5.083333333333333</v>
+        <v>5.3541666666666661</v>
       </c>
       <c r="G33" s="7">
         <f>H2-F33+H2</f>
-        <v>0.33333333333333393</v>
+        <v>6.2500000000000888E-2</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5B614C-8639-4689-BEF0-F8746A3CAD3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09AD7AC-4512-4F27-9662-6D31D8F87A14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="1140" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Bugfixes + Frontpage + Randomgen</t>
+  </si>
+  <si>
+    <t>UI</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,19 +1334,22 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C32" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" si="0"/>
-        <v>0.27083333333333326</v>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
       </c>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>5.3541666666666661</v>
+        <v>5.4166666666666661</v>
       </c>
       <c r="G32" s="7">
         <f>H2-F32+H2</f>
-        <v>6.2500000000000888E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
@@ -1353,11 +1359,11 @@
       </c>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>5.3541666666666661</v>
+        <v>5.4166666666666661</v>
       </c>
       <c r="G33" s="7">
         <f>H2-F33+H2</f>
-        <v>6.2500000000000888E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">

--- a/aikataulutus/Tyotunnit.xlsx
+++ b/aikataulutus/Tyotunnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\aikataulutus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09AD7AC-4512-4F27-9662-6D31D8F87A14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA01511-50CF-44B5-90B2-4645AA8BFF9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="1140" windowWidth="19665" windowHeight="12780" xr2:uid="{645D6CBF-11AA-407D-8E7D-16FD02D07F5D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Paivamaara</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>UI</t>
+  </si>
+  <si>
+    <t>DONE MINIMUM</t>
+  </si>
+  <si>
+    <t>Dokumentit</t>
   </si>
 </sst>
 </file>
@@ -513,10 +519,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB109AA-75F2-4DA8-AF6E-126BB473F4F2}">
   <sheetPr codeName="Taul1"/>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +662,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:F33" si="1">F4+D5</f>
+        <f t="shared" ref="F5:F42" si="1">F4+D5</f>
         <v>0.54166666666666663</v>
       </c>
       <c r="G5" s="7">
@@ -1352,75 +1358,145 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="D33" s="6">
         <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="1"/>
+        <v>5.458333333333333</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1.0138888888888888</v>
+      </c>
+      <c r="D34" s="6">
+        <f t="shared" si="0"/>
+        <v>0.27777777777777768</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="1"/>
+        <v>5.7361111111111107</v>
+      </c>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44100</v>
+      </c>
+      <c r="D35" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="7">
-        <f t="shared" si="1"/>
-        <v>5.4166666666666661</v>
-      </c>
-      <c r="G33" s="7">
-        <f>H2-F33+H2</f>
+      <c r="F35" s="7">
+        <f t="shared" si="1"/>
+        <v>5.7361111111111107</v>
+      </c>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44101</v>
+      </c>
+      <c r="D36" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D34" s="6">
+      <c r="F36" s="7">
+        <f t="shared" si="1"/>
+        <v>5.7361111111111107</v>
+      </c>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44102</v>
+      </c>
+      <c r="D37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D35" s="6">
+      <c r="F37" s="7">
+        <f t="shared" si="1"/>
+        <v>5.7361111111111107</v>
+      </c>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44103</v>
+      </c>
+      <c r="D38" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D36" s="6">
+      <c r="F38" s="7">
+        <f t="shared" si="1"/>
+        <v>5.7361111111111107</v>
+      </c>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44104</v>
+      </c>
+      <c r="D39" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D37" s="6">
+      <c r="F39" s="7">
+        <f t="shared" si="1"/>
+        <v>5.7361111111111107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D40" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D38" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D39" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D40" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F40" s="7">
+        <f t="shared" si="1"/>
+        <v>5.7361111111111107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D41" s="4"/>
+      <c r="F41" s="7">
+        <f t="shared" si="1"/>
+        <v>5.7361111111111107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="7">
+        <f t="shared" si="1"/>
+        <v>5.7361111111111107</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
